--- a/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2030.xlsx
+++ b/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2030.xlsx
@@ -594,58 +594,58 @@
         <v>1206</v>
       </c>
       <c r="B3" t="n">
-        <v>1700.43</v>
+        <v>1700.41</v>
       </c>
       <c r="C3" t="n">
-        <v>7017.629999999999</v>
+        <v>7017.530000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>825.6035294117647</v>
+        <v>825.5917647058823</v>
       </c>
       <c r="E3" t="n">
-        <v>688.0029411764706</v>
+        <v>687.993137254902</v>
       </c>
       <c r="F3" t="n">
-        <v>619.2026470588235</v>
+        <v>619.1938235294117</v>
       </c>
       <c r="G3" t="n">
-        <v>619.2026470588235</v>
+        <v>619.1938235294117</v>
       </c>
       <c r="H3" t="n">
-        <v>619.2026470588235</v>
+        <v>619.1938235294117</v>
       </c>
       <c r="I3" t="n">
-        <v>550.4023529411764</v>
+        <v>550.3945098039216</v>
       </c>
       <c r="J3" t="n">
-        <v>412.8017647058824</v>
+        <v>412.7958823529411</v>
       </c>
       <c r="K3" t="n">
-        <v>344.0014705882353</v>
+        <v>343.996568627451</v>
       </c>
       <c r="L3" t="n">
-        <v>275.2011764705882</v>
+        <v>275.1972549019608</v>
       </c>
       <c r="M3" t="n">
-        <v>756.8032352941177</v>
+        <v>756.7924509803921</v>
       </c>
       <c r="N3" t="n">
-        <v>344.0014705882353</v>
+        <v>343.996568627451</v>
       </c>
       <c r="O3" t="n">
-        <v>275.2011764705882</v>
+        <v>275.1972549019608</v>
       </c>
       <c r="P3" t="n">
-        <v>206.4008823529412</v>
+        <v>206.3979411764706</v>
       </c>
       <c r="Q3" t="n">
-        <v>206.4008823529412</v>
+        <v>206.3979411764706</v>
       </c>
       <c r="R3" t="n">
-        <v>137.6005882352941</v>
+        <v>137.5986274509804</v>
       </c>
       <c r="S3" t="n">
-        <v>137.6005882352941</v>
+        <v>137.5986274509804</v>
       </c>
     </row>
     <row r="4">
@@ -653,58 +653,58 @@
         <v>1201</v>
       </c>
       <c r="B4" t="n">
-        <v>3719.23</v>
+        <v>3719.21</v>
       </c>
       <c r="C4" t="n">
-        <v>15344.17</v>
+        <v>15344.09</v>
       </c>
       <c r="D4" t="n">
-        <v>1805.196470588235</v>
+        <v>1805.187058823529</v>
       </c>
       <c r="E4" t="n">
-        <v>1504.330392156863</v>
+        <v>1504.322549019608</v>
       </c>
       <c r="F4" t="n">
-        <v>1353.897352941176</v>
+        <v>1353.890294117647</v>
       </c>
       <c r="G4" t="n">
-        <v>1353.897352941176</v>
+        <v>1353.890294117647</v>
       </c>
       <c r="H4" t="n">
-        <v>1353.897352941176</v>
+        <v>1353.890294117647</v>
       </c>
       <c r="I4" t="n">
-        <v>1203.46431372549</v>
+        <v>1203.458039215686</v>
       </c>
       <c r="J4" t="n">
-        <v>902.5982352941177</v>
+        <v>902.5935294117647</v>
       </c>
       <c r="K4" t="n">
-        <v>752.1651960784313</v>
+        <v>752.1612745098039</v>
       </c>
       <c r="L4" t="n">
-        <v>601.7321568627451</v>
+        <v>601.7290196078432</v>
       </c>
       <c r="M4" t="n">
-        <v>1654.763431372549</v>
+        <v>1654.754803921569</v>
       </c>
       <c r="N4" t="n">
-        <v>752.1651960784313</v>
+        <v>752.1612745098039</v>
       </c>
       <c r="O4" t="n">
-        <v>601.7321568627451</v>
+        <v>601.7290196078432</v>
       </c>
       <c r="P4" t="n">
-        <v>451.2991176470588</v>
+        <v>451.2967647058824</v>
       </c>
       <c r="Q4" t="n">
-        <v>451.2991176470588</v>
+        <v>451.2967647058824</v>
       </c>
       <c r="R4" t="n">
-        <v>300.8660784313726</v>
+        <v>300.8645098039216</v>
       </c>
       <c r="S4" t="n">
-        <v>300.8660784313726</v>
+        <v>300.8645098039216</v>
       </c>
     </row>
     <row r="5">
@@ -712,58 +712,58 @@
         <v>2203</v>
       </c>
       <c r="B5" t="n">
-        <v>1590.22</v>
+        <v>1590.2</v>
       </c>
       <c r="C5" t="n">
-        <v>6514.169999999997</v>
+        <v>6514.099999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>797.6534693877549</v>
+        <v>797.6448979591835</v>
       </c>
       <c r="E5" t="n">
-        <v>664.7112244897958</v>
+        <v>664.7040816326529</v>
       </c>
       <c r="F5" t="n">
-        <v>598.2401020408161</v>
+        <v>598.2336734693876</v>
       </c>
       <c r="G5" t="n">
-        <v>598.2401020408161</v>
+        <v>598.2336734693876</v>
       </c>
       <c r="H5" t="n">
-        <v>531.7689795918366</v>
+        <v>531.7632653061223</v>
       </c>
       <c r="I5" t="n">
-        <v>465.297857142857</v>
+        <v>465.292857142857</v>
       </c>
       <c r="J5" t="n">
-        <v>398.8267346938774</v>
+        <v>398.8224489795917</v>
       </c>
       <c r="K5" t="n">
-        <v>332.3556122448979</v>
+        <v>332.3520408163265</v>
       </c>
       <c r="L5" t="n">
-        <v>332.3556122448979</v>
+        <v>332.3520408163265</v>
       </c>
       <c r="M5" t="n">
-        <v>731.1823469387753</v>
+        <v>731.1744897959181</v>
       </c>
       <c r="N5" t="n">
-        <v>265.8844897959183</v>
+        <v>265.8816326530612</v>
       </c>
       <c r="O5" t="n">
-        <v>199.4133673469387</v>
+        <v>199.4112244897959</v>
       </c>
       <c r="P5" t="n">
-        <v>199.4133673469387</v>
+        <v>199.4112244897959</v>
       </c>
       <c r="Q5" t="n">
-        <v>132.9422448979591</v>
+        <v>132.9408163265306</v>
       </c>
       <c r="R5" t="n">
-        <v>132.9422448979591</v>
+        <v>132.9408163265306</v>
       </c>
       <c r="S5" t="n">
-        <v>132.9422448979591</v>
+        <v>132.9408163265306</v>
       </c>
     </row>
     <row r="6">
@@ -771,58 +771,58 @@
         <v>2303</v>
       </c>
       <c r="B6" t="n">
-        <v>3041.57</v>
+        <v>3041.51</v>
       </c>
       <c r="C6" t="n">
-        <v>12732.22</v>
+        <v>12731.94</v>
       </c>
       <c r="D6" t="n">
-        <v>1512.73900990099</v>
+        <v>1512.705742574257</v>
       </c>
       <c r="E6" t="n">
-        <v>1260.615841584158</v>
+        <v>1260.588118811881</v>
       </c>
       <c r="F6" t="n">
-        <v>1134.554257425742</v>
+        <v>1134.529306930693</v>
       </c>
       <c r="G6" t="n">
-        <v>1134.554257425742</v>
+        <v>1134.529306930693</v>
       </c>
       <c r="H6" t="n">
-        <v>1134.554257425742</v>
+        <v>1134.529306930693</v>
       </c>
       <c r="I6" t="n">
-        <v>1008.492673267327</v>
+        <v>1008.470495049505</v>
       </c>
       <c r="J6" t="n">
-        <v>882.4310891089109</v>
+        <v>882.4116831683169</v>
       </c>
       <c r="K6" t="n">
-        <v>630.3079207920792</v>
+        <v>630.2940594059406</v>
       </c>
       <c r="L6" t="n">
-        <v>504.2463366336634</v>
+        <v>504.2352475247525</v>
       </c>
       <c r="M6" t="n">
-        <v>1386.677425742574</v>
+        <v>1386.646930693069</v>
       </c>
       <c r="N6" t="n">
-        <v>504.2463366336634</v>
+        <v>504.2352475247525</v>
       </c>
       <c r="O6" t="n">
-        <v>504.2463366336634</v>
+        <v>504.2352475247525</v>
       </c>
       <c r="P6" t="n">
-        <v>378.1847524752475</v>
+        <v>378.1764356435643</v>
       </c>
       <c r="Q6" t="n">
-        <v>252.1231683168317</v>
+        <v>252.1176237623762</v>
       </c>
       <c r="R6" t="n">
-        <v>252.1231683168317</v>
+        <v>252.1176237623762</v>
       </c>
       <c r="S6" t="n">
-        <v>252.1231683168317</v>
+        <v>252.1176237623762</v>
       </c>
     </row>
     <row r="7">
@@ -830,58 +830,58 @@
         <v>2101</v>
       </c>
       <c r="B7" t="n">
-        <v>1353.33</v>
+        <v>1353.19</v>
       </c>
       <c r="C7" t="n">
-        <v>7049.899999999999</v>
+        <v>7049.27</v>
       </c>
       <c r="D7" t="n">
-        <v>925.7444444444443</v>
+        <v>925.6617171717171</v>
       </c>
       <c r="E7" t="n">
-        <v>783.3222222222222</v>
+        <v>783.2522222222223</v>
       </c>
       <c r="F7" t="n">
-        <v>640.8999999999999</v>
+        <v>640.8427272727272</v>
       </c>
       <c r="G7" t="n">
-        <v>640.8999999999999</v>
+        <v>640.8427272727272</v>
       </c>
       <c r="H7" t="n">
-        <v>640.8999999999999</v>
+        <v>640.8427272727272</v>
       </c>
       <c r="I7" t="n">
-        <v>569.6888888888888</v>
+        <v>569.6379797979798</v>
       </c>
       <c r="J7" t="n">
-        <v>427.2666666666666</v>
+        <v>427.2284848484848</v>
       </c>
       <c r="K7" t="n">
-        <v>356.0555555555555</v>
+        <v>356.0237373737374</v>
       </c>
       <c r="L7" t="n">
-        <v>284.8444444444444</v>
+        <v>284.8189898989899</v>
       </c>
       <c r="M7" t="n">
-        <v>854.5333333333332</v>
+        <v>854.4569696969696</v>
       </c>
       <c r="N7" t="n">
-        <v>284.8444444444444</v>
+        <v>284.8189898989899</v>
       </c>
       <c r="O7" t="n">
-        <v>213.6333333333333</v>
+        <v>213.6142424242424</v>
       </c>
       <c r="P7" t="n">
-        <v>142.4222222222222</v>
+        <v>142.409494949495</v>
       </c>
       <c r="Q7" t="n">
-        <v>142.4222222222222</v>
+        <v>142.409494949495</v>
       </c>
       <c r="R7" t="n">
-        <v>71.21111111111109</v>
+        <v>71.20474747474748</v>
       </c>
       <c r="S7" t="n">
-        <v>71.21111111111109</v>
+        <v>71.20474747474748</v>
       </c>
     </row>
     <row r="8">
@@ -889,58 +889,58 @@
         <v>3605</v>
       </c>
       <c r="B8" t="n">
-        <v>453.82</v>
+        <v>453.8</v>
       </c>
       <c r="C8" t="n">
-        <v>1763.45</v>
+        <v>1763.36</v>
       </c>
       <c r="D8" t="n">
-        <v>192.0589108910891</v>
+        <v>192.049108910891</v>
       </c>
       <c r="E8" t="n">
-        <v>157.1391089108911</v>
+        <v>157.1310891089109</v>
       </c>
       <c r="F8" t="n">
-        <v>139.6792079207921</v>
+        <v>139.6720792079208</v>
       </c>
       <c r="G8" t="n">
-        <v>139.6792079207921</v>
+        <v>139.6720792079208</v>
       </c>
       <c r="H8" t="n">
-        <v>157.1391089108911</v>
+        <v>157.1310891089109</v>
       </c>
       <c r="I8" t="n">
-        <v>139.6792079207921</v>
+        <v>139.6720792079208</v>
       </c>
       <c r="J8" t="n">
-        <v>122.2193069306931</v>
+        <v>122.2130693069307</v>
       </c>
       <c r="K8" t="n">
-        <v>87.29950495049503</v>
+        <v>87.29504950495047</v>
       </c>
       <c r="L8" t="n">
-        <v>69.83960396039603</v>
+        <v>69.83603960396039</v>
       </c>
       <c r="M8" t="n">
-        <v>174.5990099009901</v>
+        <v>174.5900990099009</v>
       </c>
       <c r="N8" t="n">
-        <v>87.29950495049503</v>
+        <v>87.29504950495047</v>
       </c>
       <c r="O8" t="n">
-        <v>87.29950495049503</v>
+        <v>87.29504950495047</v>
       </c>
       <c r="P8" t="n">
-        <v>69.83960396039603</v>
+        <v>69.83603960396039</v>
       </c>
       <c r="Q8" t="n">
-        <v>52.37970297029702</v>
+        <v>52.37702970297028</v>
       </c>
       <c r="R8" t="n">
-        <v>34.91980198019802</v>
+        <v>34.91801980198019</v>
       </c>
       <c r="S8" t="n">
-        <v>52.37970297029702</v>
+        <v>52.37702970297028</v>
       </c>
     </row>
     <row r="9">
@@ -1007,58 +1007,58 @@
         <v>2404</v>
       </c>
       <c r="B10" t="n">
-        <v>1082.93</v>
+        <v>1082.78</v>
       </c>
       <c r="C10" t="n">
-        <v>4802.5</v>
+        <v>4801.84</v>
       </c>
       <c r="D10" t="n">
-        <v>624.325</v>
+        <v>624.2392000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>528.275</v>
+        <v>528.2024</v>
       </c>
       <c r="F10" t="n">
-        <v>480.25</v>
+        <v>480.184</v>
       </c>
       <c r="G10" t="n">
-        <v>432.225</v>
+        <v>432.1656</v>
       </c>
       <c r="H10" t="n">
-        <v>432.225</v>
+        <v>432.1656</v>
       </c>
       <c r="I10" t="n">
-        <v>384.2</v>
+        <v>384.1472</v>
       </c>
       <c r="J10" t="n">
-        <v>288.15</v>
+        <v>288.1104</v>
       </c>
       <c r="K10" t="n">
-        <v>240.125</v>
+        <v>240.092</v>
       </c>
       <c r="L10" t="n">
-        <v>192.1</v>
+        <v>192.0736</v>
       </c>
       <c r="M10" t="n">
-        <v>576.3</v>
+        <v>576.2207999999999</v>
       </c>
       <c r="N10" t="n">
-        <v>192.1</v>
+        <v>192.0736</v>
       </c>
       <c r="O10" t="n">
-        <v>144.075</v>
+        <v>144.0552</v>
       </c>
       <c r="P10" t="n">
-        <v>96.05</v>
+        <v>96.0368</v>
       </c>
       <c r="Q10" t="n">
-        <v>96.05</v>
+        <v>96.0368</v>
       </c>
       <c r="R10" t="n">
-        <v>48.025</v>
+        <v>48.0184</v>
       </c>
       <c r="S10" t="n">
-        <v>48.025</v>
+        <v>48.0184</v>
       </c>
     </row>
     <row r="11">
@@ -1066,58 +1066,58 @@
         <v>6402</v>
       </c>
       <c r="B11" t="n">
-        <v>4141.55</v>
+        <v>4141.47</v>
       </c>
       <c r="C11" t="n">
-        <v>21444.34</v>
+        <v>21443.99</v>
       </c>
       <c r="D11" t="n">
-        <v>2815.923434343434</v>
+        <v>2815.877474747474</v>
       </c>
       <c r="E11" t="n">
-        <v>2382.704444444444</v>
+        <v>2382.665555555556</v>
       </c>
       <c r="F11" t="n">
-        <v>2166.09494949495</v>
+        <v>2166.059595959596</v>
       </c>
       <c r="G11" t="n">
-        <v>1949.485454545454</v>
+        <v>1949.453636363636</v>
       </c>
       <c r="H11" t="n">
-        <v>1949.485454545454</v>
+        <v>1949.453636363636</v>
       </c>
       <c r="I11" t="n">
-        <v>1516.266464646465</v>
+        <v>1516.241717171717</v>
       </c>
       <c r="J11" t="n">
-        <v>1299.65696969697</v>
+        <v>1299.635757575757</v>
       </c>
       <c r="K11" t="n">
-        <v>866.4379797979798</v>
+        <v>866.4238383838384</v>
       </c>
       <c r="L11" t="n">
-        <v>866.4379797979798</v>
+        <v>866.4238383838384</v>
       </c>
       <c r="M11" t="n">
-        <v>2815.923434343434</v>
+        <v>2815.877474747474</v>
       </c>
       <c r="N11" t="n">
-        <v>866.4379797979798</v>
+        <v>866.4238383838384</v>
       </c>
       <c r="O11" t="n">
-        <v>649.8284848484848</v>
+        <v>649.8178787878787</v>
       </c>
       <c r="P11" t="n">
-        <v>433.2189898989899</v>
+        <v>433.2119191919192</v>
       </c>
       <c r="Q11" t="n">
-        <v>433.2189898989899</v>
+        <v>433.2119191919192</v>
       </c>
       <c r="R11" t="n">
-        <v>216.6094949494949</v>
+        <v>216.6059595959596</v>
       </c>
       <c r="S11" t="n">
-        <v>216.6094949494949</v>
+        <v>216.6059595959596</v>
       </c>
     </row>
     <row r="12">
@@ -1125,58 +1125,58 @@
         <v>209</v>
       </c>
       <c r="B12" t="n">
-        <v>78.81999999999999</v>
+        <v>78.8</v>
       </c>
       <c r="C12" t="n">
-        <v>380.4299999999999</v>
+        <v>380.36</v>
       </c>
       <c r="D12" t="n">
-        <v>33.89970297029702</v>
+        <v>33.89346534653465</v>
       </c>
       <c r="E12" t="n">
-        <v>30.13306930693069</v>
+        <v>30.12752475247524</v>
       </c>
       <c r="F12" t="n">
-        <v>26.36643564356435</v>
+        <v>26.36158415841584</v>
       </c>
       <c r="G12" t="n">
-        <v>22.59980198019801</v>
+        <v>22.59564356435643</v>
       </c>
       <c r="H12" t="n">
-        <v>30.13306930693069</v>
+        <v>30.12752475247524</v>
       </c>
       <c r="I12" t="n">
-        <v>22.59980198019801</v>
+        <v>22.59564356435643</v>
       </c>
       <c r="J12" t="n">
-        <v>26.36643564356435</v>
+        <v>26.36158415841584</v>
       </c>
       <c r="K12" t="n">
-        <v>26.36643564356435</v>
+        <v>26.36158415841584</v>
       </c>
       <c r="L12" t="n">
-        <v>18.83316831683168</v>
+        <v>18.82970297029702</v>
       </c>
       <c r="M12" t="n">
-        <v>33.89970297029702</v>
+        <v>33.89346534653465</v>
       </c>
       <c r="N12" t="n">
-        <v>18.83316831683168</v>
+        <v>18.82970297029702</v>
       </c>
       <c r="O12" t="n">
-        <v>18.83316831683168</v>
+        <v>18.82970297029702</v>
       </c>
       <c r="P12" t="n">
-        <v>15.06653465346534</v>
+        <v>15.06376237623762</v>
       </c>
       <c r="Q12" t="n">
-        <v>18.83316831683168</v>
+        <v>18.82970297029702</v>
       </c>
       <c r="R12" t="n">
-        <v>15.06653465346534</v>
+        <v>15.06376237623762</v>
       </c>
       <c r="S12" t="n">
-        <v>22.59980198019801</v>
+        <v>22.59564356435643</v>
       </c>
     </row>
     <row r="13">
@@ -1187,504 +1187,432 @@
         <v>134.56</v>
       </c>
       <c r="C13" t="n">
-        <v>651.1399999999999</v>
+        <v>651.0999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>58.02237623762375</v>
+        <v>58.01881188118811</v>
       </c>
       <c r="E13" t="n">
-        <v>51.57544554455445</v>
+        <v>51.57227722772276</v>
       </c>
       <c r="F13" t="n">
-        <v>45.12851485148514</v>
+        <v>45.12574257425742</v>
       </c>
       <c r="G13" t="n">
-        <v>38.68158415841583</v>
+        <v>38.67920792079207</v>
       </c>
       <c r="H13" t="n">
-        <v>51.57544554455445</v>
+        <v>51.57227722772276</v>
       </c>
       <c r="I13" t="n">
-        <v>38.68158415841583</v>
+        <v>38.67920792079207</v>
       </c>
       <c r="J13" t="n">
-        <v>45.12851485148514</v>
+        <v>45.12574257425742</v>
       </c>
       <c r="K13" t="n">
-        <v>45.12851485148514</v>
+        <v>45.12574257425742</v>
       </c>
       <c r="L13" t="n">
-        <v>32.23465346534653</v>
+        <v>32.23267326732672</v>
       </c>
       <c r="M13" t="n">
-        <v>58.02237623762375</v>
+        <v>58.01881188118811</v>
       </c>
       <c r="N13" t="n">
-        <v>32.23465346534653</v>
+        <v>32.23267326732672</v>
       </c>
       <c r="O13" t="n">
-        <v>32.23465346534653</v>
+        <v>32.23267326732672</v>
       </c>
       <c r="P13" t="n">
-        <v>25.78772277227722</v>
+        <v>25.78613861386138</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.23465346534653</v>
+        <v>32.23267326732672</v>
       </c>
       <c r="R13" t="n">
-        <v>25.78772277227722</v>
+        <v>25.78613861386138</v>
       </c>
       <c r="S13" t="n">
-        <v>38.68158415841583</v>
+        <v>38.67920792079207</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>205</v>
-      </c>
-      <c r="B14" t="n">
-        <v>293.94</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>1422.42</v>
-      </c>
-      <c r="D14" t="n">
-        <v>126.7502970297029</v>
-      </c>
-      <c r="E14" t="n">
-        <v>112.6669306930693</v>
-      </c>
-      <c r="F14" t="n">
-        <v>98.58356435643564</v>
-      </c>
-      <c r="G14" t="n">
-        <v>84.50019801980196</v>
-      </c>
-      <c r="H14" t="n">
-        <v>112.6669306930693</v>
-      </c>
-      <c r="I14" t="n">
-        <v>84.50019801980196</v>
-      </c>
-      <c r="J14" t="n">
-        <v>98.58356435643564</v>
-      </c>
-      <c r="K14" t="n">
-        <v>98.58356435643564</v>
-      </c>
-      <c r="L14" t="n">
-        <v>70.4168316831683</v>
-      </c>
-      <c r="M14" t="n">
-        <v>126.7502970297029</v>
-      </c>
-      <c r="N14" t="n">
-        <v>70.4168316831683</v>
-      </c>
-      <c r="O14" t="n">
-        <v>70.4168316831683</v>
-      </c>
-      <c r="P14" t="n">
-        <v>56.33346534653464</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>70.4168316831683</v>
-      </c>
-      <c r="R14" t="n">
-        <v>56.33346534653464</v>
-      </c>
-      <c r="S14" t="n">
-        <v>84.50019801980196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B15" t="n">
-        <v>99.89</v>
+        <v>293.92</v>
       </c>
       <c r="C15" t="n">
-        <v>482.5699999999999</v>
+        <v>1422.36</v>
       </c>
       <c r="D15" t="n">
-        <v>43.00128712871286</v>
+        <v>126.7449504950495</v>
       </c>
       <c r="E15" t="n">
-        <v>38.22336633663366</v>
+        <v>112.6621782178218</v>
       </c>
       <c r="F15" t="n">
-        <v>33.44544554455445</v>
+        <v>98.57940594059404</v>
       </c>
       <c r="G15" t="n">
-        <v>28.66752475247524</v>
+        <v>84.49663366336631</v>
       </c>
       <c r="H15" t="n">
-        <v>38.22336633663366</v>
+        <v>112.6621782178218</v>
       </c>
       <c r="I15" t="n">
-        <v>28.66752475247524</v>
+        <v>84.49663366336631</v>
       </c>
       <c r="J15" t="n">
-        <v>33.44544554455445</v>
+        <v>98.57940594059404</v>
       </c>
       <c r="K15" t="n">
-        <v>33.44544554455445</v>
+        <v>98.57940594059404</v>
       </c>
       <c r="L15" t="n">
-        <v>23.88960396039603</v>
+        <v>70.41386138613859</v>
       </c>
       <c r="M15" t="n">
-        <v>43.00128712871286</v>
+        <v>126.7449504950495</v>
       </c>
       <c r="N15" t="n">
-        <v>23.88960396039603</v>
+        <v>70.41386138613859</v>
       </c>
       <c r="O15" t="n">
-        <v>23.88960396039603</v>
+        <v>70.41386138613859</v>
       </c>
       <c r="P15" t="n">
-        <v>19.11168316831683</v>
+        <v>56.33108910891088</v>
       </c>
       <c r="Q15" t="n">
-        <v>23.88960396039603</v>
+        <v>70.41386138613859</v>
       </c>
       <c r="R15" t="n">
-        <v>19.11168316831683</v>
+        <v>56.33108910891088</v>
       </c>
       <c r="S15" t="n">
-        <v>28.66752475247524</v>
+        <v>84.49663366336631</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3607</v>
+        <v>202</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>99.87</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>482.4899999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>42.99415841584158</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>38.21702970297029</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>33.43990099009901</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>28.66277227722772</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>38.21702970297029</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>28.66277227722772</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.43990099009901</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>33.43990099009901</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>23.88564356435643</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>42.99415841584158</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>23.88564356435643</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>23.88564356435643</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>19.10851485148515</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>23.88564356435643</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>19.10851485148515</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>28.66277227722772</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6504</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
+        <v>3607</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1303</v>
-      </c>
-      <c r="B18" t="n">
-        <v>495.94</v>
-      </c>
+        <v>6504</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>2231.75</v>
-      </c>
-      <c r="D18" t="n">
-        <v>250.5025510204081</v>
-      </c>
-      <c r="E18" t="n">
-        <v>204.9566326530611</v>
-      </c>
-      <c r="F18" t="n">
-        <v>182.1836734693877</v>
-      </c>
-      <c r="G18" t="n">
-        <v>182.1836734693877</v>
-      </c>
-      <c r="H18" t="n">
-        <v>182.1836734693877</v>
-      </c>
-      <c r="I18" t="n">
-        <v>159.4107142857142</v>
-      </c>
-      <c r="J18" t="n">
-        <v>159.4107142857142</v>
-      </c>
-      <c r="K18" t="n">
-        <v>136.6377551020408</v>
-      </c>
-      <c r="L18" t="n">
-        <v>113.8647959183673</v>
-      </c>
-      <c r="M18" t="n">
-        <v>227.7295918367346</v>
-      </c>
-      <c r="N18" t="n">
-        <v>91.09183673469386</v>
-      </c>
-      <c r="O18" t="n">
-        <v>91.09183673469386</v>
-      </c>
-      <c r="P18" t="n">
-        <v>68.31887755102038</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>68.31887755102038</v>
-      </c>
-      <c r="R18" t="n">
-        <v>45.54591836734693</v>
-      </c>
-      <c r="S18" t="n">
-        <v>68.31887755102038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6503</v>
+        <v>1303</v>
       </c>
       <c r="B19" t="n">
-        <v>1021.97</v>
+        <v>495.9</v>
       </c>
       <c r="C19" t="n">
-        <v>4598.859999999998</v>
+        <v>2231.549999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>510.9844444444443</v>
+        <v>250.4801020408163</v>
       </c>
       <c r="E19" t="n">
-        <v>464.531313131313</v>
+        <v>204.9382653061224</v>
       </c>
       <c r="F19" t="n">
-        <v>418.0781818181816</v>
+        <v>182.1673469387755</v>
       </c>
       <c r="G19" t="n">
-        <v>371.6250505050504</v>
+        <v>182.1673469387755</v>
       </c>
       <c r="H19" t="n">
-        <v>371.6250505050504</v>
+        <v>182.1673469387755</v>
       </c>
       <c r="I19" t="n">
-        <v>371.6250505050504</v>
+        <v>159.3964285714285</v>
       </c>
       <c r="J19" t="n">
-        <v>325.1719191919191</v>
+        <v>159.3964285714285</v>
       </c>
       <c r="K19" t="n">
-        <v>232.2656565656565</v>
+        <v>136.6255102040816</v>
       </c>
       <c r="L19" t="n">
-        <v>185.8125252525252</v>
+        <v>113.8545918367347</v>
       </c>
       <c r="M19" t="n">
-        <v>510.9844444444443</v>
+        <v>227.7091836734693</v>
       </c>
       <c r="N19" t="n">
-        <v>185.8125252525252</v>
+        <v>91.08367346938773</v>
       </c>
       <c r="O19" t="n">
-        <v>185.8125252525252</v>
+        <v>91.08367346938773</v>
       </c>
       <c r="P19" t="n">
-        <v>139.3593939393939</v>
+        <v>68.3127551020408</v>
       </c>
       <c r="Q19" t="n">
-        <v>139.3593939393939</v>
+        <v>68.3127551020408</v>
       </c>
       <c r="R19" t="n">
-        <v>92.9062626262626</v>
+        <v>45.54183673469387</v>
       </c>
       <c r="S19" t="n">
-        <v>92.9062626262626</v>
+        <v>68.3127551020408</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6505</v>
+        <v>6503</v>
       </c>
       <c r="B20" t="n">
-        <v>1546.51</v>
+        <v>1021.95</v>
       </c>
       <c r="C20" t="n">
-        <v>6959.289999999998</v>
+        <v>4598.789999999998</v>
       </c>
       <c r="D20" t="n">
-        <v>773.2544444444442</v>
+        <v>510.9766666666665</v>
       </c>
       <c r="E20" t="n">
-        <v>702.9585858585856</v>
+        <v>464.5242424242423</v>
       </c>
       <c r="F20" t="n">
-        <v>632.662727272727</v>
+        <v>418.071818181818</v>
       </c>
       <c r="G20" t="n">
-        <v>562.3668686868685</v>
+        <v>371.6193939393938</v>
       </c>
       <c r="H20" t="n">
-        <v>562.3668686868685</v>
+        <v>371.6193939393938</v>
       </c>
       <c r="I20" t="n">
-        <v>562.3668686868685</v>
+        <v>371.6193939393938</v>
       </c>
       <c r="J20" t="n">
-        <v>492.07101010101</v>
+        <v>325.1669696969696</v>
       </c>
       <c r="K20" t="n">
-        <v>351.4792929292928</v>
+        <v>232.2621212121211</v>
       </c>
       <c r="L20" t="n">
-        <v>281.1834343434343</v>
+        <v>185.8096969696969</v>
       </c>
       <c r="M20" t="n">
-        <v>773.2544444444442</v>
+        <v>510.9766666666665</v>
       </c>
       <c r="N20" t="n">
-        <v>281.1834343434343</v>
+        <v>185.8096969696969</v>
       </c>
       <c r="O20" t="n">
-        <v>281.1834343434343</v>
+        <v>185.8096969696969</v>
       </c>
       <c r="P20" t="n">
-        <v>210.8875757575757</v>
+        <v>139.3572727272727</v>
       </c>
       <c r="Q20" t="n">
-        <v>210.8875757575757</v>
+        <v>139.3572727272727</v>
       </c>
       <c r="R20" t="n">
-        <v>140.5917171717171</v>
+        <v>92.90484848484846</v>
       </c>
       <c r="S20" t="n">
-        <v>140.5917171717171</v>
+        <v>92.90484848484846</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6701</v>
+        <v>6505</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1546.43</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
+        <v>6958.949999999998</v>
+      </c>
+      <c r="D21" t="n">
+        <v>773.2166666666664</v>
+      </c>
+      <c r="E21" t="n">
+        <v>702.9242424242422</v>
+      </c>
+      <c r="F21" t="n">
+        <v>632.6318181818179</v>
+      </c>
+      <c r="G21" t="n">
+        <v>562.3393939393937</v>
+      </c>
+      <c r="H21" t="n">
+        <v>562.3393939393937</v>
+      </c>
+      <c r="I21" t="n">
+        <v>562.3393939393937</v>
+      </c>
+      <c r="J21" t="n">
+        <v>492.0469696969696</v>
+      </c>
+      <c r="K21" t="n">
+        <v>351.4621212121211</v>
+      </c>
+      <c r="L21" t="n">
+        <v>281.1696969696969</v>
+      </c>
+      <c r="M21" t="n">
+        <v>773.2166666666664</v>
+      </c>
+      <c r="N21" t="n">
+        <v>281.1696969696969</v>
+      </c>
+      <c r="O21" t="n">
+        <v>281.1696969696969</v>
+      </c>
+      <c r="P21" t="n">
+        <v>210.8772727272727</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>210.8772727272727</v>
+      </c>
+      <c r="R21" t="n">
+        <v>140.5848484848484</v>
+      </c>
+      <c r="S21" t="n">
+        <v>140.5848484848484</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6703</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
+        <v>6701</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
         <v>0</v>
       </c>
@@ -1707,11 +1635,9 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6702</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
+        <v>6703</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
         <v>0</v>
       </c>
@@ -1734,2543 +1660,2401 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6610</v>
-      </c>
-      <c r="B24" t="n">
-        <v>241.77</v>
-      </c>
+        <v>6702</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>996.4999999999998</v>
-      </c>
-      <c r="D24" t="n">
-        <v>107.4656862745098</v>
-      </c>
-      <c r="E24" t="n">
-        <v>97.69607843137253</v>
-      </c>
-      <c r="F24" t="n">
-        <v>87.92647058823528</v>
-      </c>
-      <c r="G24" t="n">
-        <v>78.15686274509802</v>
-      </c>
-      <c r="H24" t="n">
-        <v>78.15686274509802</v>
-      </c>
-      <c r="I24" t="n">
-        <v>78.15686274509802</v>
-      </c>
-      <c r="J24" t="n">
-        <v>68.38725490196077</v>
-      </c>
-      <c r="K24" t="n">
-        <v>48.84803921568626</v>
-      </c>
-      <c r="L24" t="n">
-        <v>48.84803921568626</v>
-      </c>
-      <c r="M24" t="n">
-        <v>107.4656862745098</v>
-      </c>
-      <c r="N24" t="n">
-        <v>48.84803921568626</v>
-      </c>
-      <c r="O24" t="n">
-        <v>39.07843137254901</v>
-      </c>
-      <c r="P24" t="n">
-        <v>29.30882352941176</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>29.30882352941176</v>
-      </c>
-      <c r="R24" t="n">
-        <v>19.53921568627451</v>
-      </c>
-      <c r="S24" t="n">
-        <v>29.30882352941176</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6602</v>
+        <v>6610</v>
       </c>
       <c r="B25" t="n">
-        <v>770.4</v>
+        <v>241.77</v>
       </c>
       <c r="C25" t="n">
-        <v>3228.48</v>
+        <v>996.4999999999998</v>
       </c>
       <c r="D25" t="n">
-        <v>348.1694117647058</v>
+        <v>107.4656862745098</v>
       </c>
       <c r="E25" t="n">
-        <v>316.5176470588235</v>
+        <v>97.69607843137253</v>
       </c>
       <c r="F25" t="n">
-        <v>284.8658823529411</v>
+        <v>87.92647058823528</v>
       </c>
       <c r="G25" t="n">
-        <v>253.2141176470588</v>
+        <v>78.15686274509802</v>
       </c>
       <c r="H25" t="n">
-        <v>253.2141176470588</v>
+        <v>78.15686274509802</v>
       </c>
       <c r="I25" t="n">
-        <v>253.2141176470588</v>
+        <v>78.15686274509802</v>
       </c>
       <c r="J25" t="n">
-        <v>221.5623529411764</v>
+        <v>68.38725490196077</v>
       </c>
       <c r="K25" t="n">
-        <v>158.2588235294117</v>
+        <v>48.84803921568626</v>
       </c>
       <c r="L25" t="n">
-        <v>158.2588235294117</v>
+        <v>48.84803921568626</v>
       </c>
       <c r="M25" t="n">
-        <v>348.1694117647058</v>
+        <v>107.4656862745098</v>
       </c>
       <c r="N25" t="n">
-        <v>158.2588235294117</v>
+        <v>48.84803921568626</v>
       </c>
       <c r="O25" t="n">
-        <v>126.6070588235294</v>
+        <v>39.07843137254901</v>
       </c>
       <c r="P25" t="n">
-        <v>94.95529411764704</v>
+        <v>29.30882352941176</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.95529411764704</v>
+        <v>29.30882352941176</v>
       </c>
       <c r="R25" t="n">
-        <v>63.30352941176469</v>
+        <v>19.53921568627451</v>
       </c>
       <c r="S25" t="n">
-        <v>94.95529411764704</v>
+        <v>29.30882352941176</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6603</v>
+        <v>6602</v>
       </c>
       <c r="B26" t="n">
-        <v>884.54</v>
+        <v>770.4</v>
       </c>
       <c r="C26" t="n">
-        <v>3699.71</v>
+        <v>3228.48</v>
       </c>
       <c r="D26" t="n">
-        <v>398.9883333333332</v>
+        <v>348.1694117647058</v>
       </c>
       <c r="E26" t="n">
-        <v>362.7166666666666</v>
+        <v>316.5176470588235</v>
       </c>
       <c r="F26" t="n">
-        <v>326.4449999999999</v>
+        <v>284.8658823529411</v>
       </c>
       <c r="G26" t="n">
-        <v>290.1733333333333</v>
+        <v>253.2141176470588</v>
       </c>
       <c r="H26" t="n">
-        <v>290.1733333333333</v>
+        <v>253.2141176470588</v>
       </c>
       <c r="I26" t="n">
-        <v>290.1733333333333</v>
+        <v>253.2141176470588</v>
       </c>
       <c r="J26" t="n">
-        <v>253.9016666666666</v>
+        <v>221.5623529411764</v>
       </c>
       <c r="K26" t="n">
-        <v>181.3583333333333</v>
+        <v>158.2588235294117</v>
       </c>
       <c r="L26" t="n">
-        <v>181.3583333333333</v>
+        <v>158.2588235294117</v>
       </c>
       <c r="M26" t="n">
-        <v>398.9883333333332</v>
+        <v>348.1694117647058</v>
       </c>
       <c r="N26" t="n">
-        <v>181.3583333333333</v>
+        <v>158.2588235294117</v>
       </c>
       <c r="O26" t="n">
-        <v>145.0866666666666</v>
+        <v>126.6070588235294</v>
       </c>
       <c r="P26" t="n">
-        <v>108.815</v>
+        <v>94.95529411764704</v>
       </c>
       <c r="Q26" t="n">
-        <v>108.815</v>
+        <v>94.95529411764704</v>
       </c>
       <c r="R26" t="n">
-        <v>72.54333333333332</v>
+        <v>63.30352941176469</v>
       </c>
       <c r="S26" t="n">
-        <v>108.815</v>
+        <v>94.95529411764704</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6604</v>
+        <v>6603</v>
       </c>
       <c r="B27" t="n">
-        <v>352.32</v>
+        <v>884.54</v>
       </c>
       <c r="C27" t="n">
-        <v>1465.64</v>
+        <v>3699.71</v>
       </c>
       <c r="D27" t="n">
-        <v>158.0592156862745</v>
+        <v>398.9883333333332</v>
       </c>
       <c r="E27" t="n">
-        <v>143.6901960784314</v>
+        <v>362.7166666666666</v>
       </c>
       <c r="F27" t="n">
-        <v>129.3211764705882</v>
+        <v>326.4449999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>114.9521568627451</v>
+        <v>290.1733333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>114.9521568627451</v>
+        <v>290.1733333333333</v>
       </c>
       <c r="I27" t="n">
-        <v>114.9521568627451</v>
+        <v>290.1733333333333</v>
       </c>
       <c r="J27" t="n">
-        <v>100.583137254902</v>
+        <v>253.9016666666666</v>
       </c>
       <c r="K27" t="n">
-        <v>71.84509803921569</v>
+        <v>181.3583333333333</v>
       </c>
       <c r="L27" t="n">
-        <v>71.84509803921569</v>
+        <v>181.3583333333333</v>
       </c>
       <c r="M27" t="n">
-        <v>158.0592156862745</v>
+        <v>398.9883333333332</v>
       </c>
       <c r="N27" t="n">
-        <v>71.84509803921569</v>
+        <v>181.3583333333333</v>
       </c>
       <c r="O27" t="n">
-        <v>57.47607843137254</v>
+        <v>145.0866666666666</v>
       </c>
       <c r="P27" t="n">
-        <v>43.10705882352941</v>
+        <v>108.815</v>
       </c>
       <c r="Q27" t="n">
-        <v>43.10705882352941</v>
+        <v>108.815</v>
       </c>
       <c r="R27" t="n">
-        <v>28.73803921568627</v>
+        <v>72.54333333333332</v>
       </c>
       <c r="S27" t="n">
-        <v>43.10705882352941</v>
+        <v>108.815</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6605</v>
+        <v>6604</v>
       </c>
       <c r="B28" t="n">
-        <v>252.18</v>
+        <v>352.32</v>
       </c>
       <c r="C28" t="n">
-        <v>1058.4</v>
+        <v>1465.64</v>
       </c>
       <c r="D28" t="n">
-        <v>114.1411764705882</v>
+        <v>158.0592156862745</v>
       </c>
       <c r="E28" t="n">
-        <v>103.7647058823529</v>
+        <v>143.6901960784314</v>
       </c>
       <c r="F28" t="n">
-        <v>93.38823529411764</v>
+        <v>129.3211764705882</v>
       </c>
       <c r="G28" t="n">
-        <v>83.01176470588234</v>
+        <v>114.9521568627451</v>
       </c>
       <c r="H28" t="n">
-        <v>83.01176470588234</v>
+        <v>114.9521568627451</v>
       </c>
       <c r="I28" t="n">
-        <v>83.01176470588234</v>
+        <v>114.9521568627451</v>
       </c>
       <c r="J28" t="n">
-        <v>72.63529411764706</v>
+        <v>100.583137254902</v>
       </c>
       <c r="K28" t="n">
-        <v>51.88235294117646</v>
+        <v>71.84509803921569</v>
       </c>
       <c r="L28" t="n">
-        <v>51.88235294117646</v>
+        <v>71.84509803921569</v>
       </c>
       <c r="M28" t="n">
-        <v>114.1411764705882</v>
+        <v>158.0592156862745</v>
       </c>
       <c r="N28" t="n">
-        <v>51.88235294117646</v>
+        <v>71.84509803921569</v>
       </c>
       <c r="O28" t="n">
-        <v>41.50588235294117</v>
+        <v>57.47607843137254</v>
       </c>
       <c r="P28" t="n">
-        <v>31.12941176470588</v>
+        <v>43.10705882352941</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.12941176470588</v>
+        <v>43.10705882352941</v>
       </c>
       <c r="R28" t="n">
-        <v>20.75294117647059</v>
+        <v>28.73803921568627</v>
       </c>
       <c r="S28" t="n">
-        <v>31.12941176470588</v>
+        <v>43.10705882352941</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6606</v>
+        <v>6605</v>
       </c>
       <c r="B29" t="n">
-        <v>1442.28</v>
+        <v>252.16</v>
       </c>
       <c r="C29" t="n">
-        <v>6046.129999999998</v>
+        <v>1058.29</v>
       </c>
       <c r="D29" t="n">
-        <v>652.0336274509802</v>
+        <v>114.1293137254902</v>
       </c>
       <c r="E29" t="n">
-        <v>592.7578431372548</v>
+        <v>103.7539215686274</v>
       </c>
       <c r="F29" t="n">
-        <v>533.4820588235293</v>
+        <v>93.37852941176467</v>
       </c>
       <c r="G29" t="n">
-        <v>474.2062745098038</v>
+        <v>83.00313725490194</v>
       </c>
       <c r="H29" t="n">
-        <v>474.2062745098038</v>
+        <v>83.00313725490194</v>
       </c>
       <c r="I29" t="n">
-        <v>474.2062745098038</v>
+        <v>83.00313725490194</v>
       </c>
       <c r="J29" t="n">
-        <v>414.9304901960784</v>
+        <v>72.6277450980392</v>
       </c>
       <c r="K29" t="n">
-        <v>296.3789215686274</v>
+        <v>51.87696078431372</v>
       </c>
       <c r="L29" t="n">
-        <v>296.3789215686274</v>
+        <v>51.87696078431372</v>
       </c>
       <c r="M29" t="n">
-        <v>652.0336274509802</v>
+        <v>114.1293137254902</v>
       </c>
       <c r="N29" t="n">
-        <v>296.3789215686274</v>
+        <v>51.87696078431372</v>
       </c>
       <c r="O29" t="n">
-        <v>237.1031372549019</v>
+        <v>41.50156862745097</v>
       </c>
       <c r="P29" t="n">
-        <v>177.8273529411764</v>
+        <v>31.12617647058823</v>
       </c>
       <c r="Q29" t="n">
-        <v>177.8273529411764</v>
+        <v>31.12617647058823</v>
       </c>
       <c r="R29" t="n">
-        <v>118.551568627451</v>
+        <v>20.75078431372549</v>
       </c>
       <c r="S29" t="n">
-        <v>177.8273529411764</v>
+        <v>31.12617647058823</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6507</v>
+        <v>6606</v>
       </c>
       <c r="B30" t="n">
-        <v>1043.32</v>
+        <v>1442.25</v>
       </c>
       <c r="C30" t="n">
-        <v>4375.659999999999</v>
+        <v>6045.979999999998</v>
       </c>
       <c r="D30" t="n">
-        <v>471.8849019607842</v>
+        <v>652.017450980392</v>
       </c>
       <c r="E30" t="n">
-        <v>428.9862745098038</v>
+        <v>592.7431372549019</v>
       </c>
       <c r="F30" t="n">
-        <v>386.0876470588234</v>
+        <v>533.4688235294116</v>
       </c>
       <c r="G30" t="n">
-        <v>343.1890196078431</v>
+        <v>474.1945098039214</v>
       </c>
       <c r="H30" t="n">
-        <v>343.1890196078431</v>
+        <v>474.1945098039214</v>
       </c>
       <c r="I30" t="n">
-        <v>343.1890196078431</v>
+        <v>474.1945098039214</v>
       </c>
       <c r="J30" t="n">
-        <v>300.2903921568627</v>
+        <v>414.9201960784313</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4931372549019</v>
+        <v>296.3715686274509</v>
       </c>
       <c r="L30" t="n">
-        <v>214.4931372549019</v>
+        <v>296.3715686274509</v>
       </c>
       <c r="M30" t="n">
-        <v>471.8849019607842</v>
+        <v>652.017450980392</v>
       </c>
       <c r="N30" t="n">
-        <v>214.4931372549019</v>
+        <v>296.3715686274509</v>
       </c>
       <c r="O30" t="n">
-        <v>171.5945098039215</v>
+        <v>237.0972549019607</v>
       </c>
       <c r="P30" t="n">
-        <v>128.6958823529411</v>
+        <v>177.8229411764705</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.6958823529411</v>
+        <v>177.8229411764705</v>
       </c>
       <c r="R30" t="n">
-        <v>85.79725490196077</v>
+        <v>118.5486274509804</v>
       </c>
       <c r="S30" t="n">
-        <v>128.6958823529411</v>
+        <v>177.8229411764705</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6508</v>
+        <v>6507</v>
       </c>
       <c r="B31" t="n">
-        <v>1479.01</v>
+        <v>1043.27</v>
       </c>
       <c r="C31" t="n">
-        <v>6200.949999999999</v>
+        <v>4375.41</v>
       </c>
       <c r="D31" t="n">
-        <v>668.7299019607841</v>
+        <v>471.8579411764705</v>
       </c>
       <c r="E31" t="n">
-        <v>607.9362745098039</v>
+        <v>428.9617647058823</v>
       </c>
       <c r="F31" t="n">
-        <v>547.1426470588234</v>
+        <v>386.065588235294</v>
       </c>
       <c r="G31" t="n">
-        <v>486.349019607843</v>
+        <v>343.1694117647058</v>
       </c>
       <c r="H31" t="n">
-        <v>486.349019607843</v>
+        <v>343.1694117647058</v>
       </c>
       <c r="I31" t="n">
-        <v>486.349019607843</v>
+        <v>343.1694117647058</v>
       </c>
       <c r="J31" t="n">
-        <v>425.5553921568627</v>
+        <v>300.2732352941176</v>
       </c>
       <c r="K31" t="n">
-        <v>303.9681372549019</v>
+        <v>214.4808823529411</v>
       </c>
       <c r="L31" t="n">
-        <v>303.9681372549019</v>
+        <v>214.4808823529411</v>
       </c>
       <c r="M31" t="n">
-        <v>668.7299019607841</v>
+        <v>471.8579411764705</v>
       </c>
       <c r="N31" t="n">
-        <v>303.9681372549019</v>
+        <v>214.4808823529411</v>
       </c>
       <c r="O31" t="n">
-        <v>243.1745098039215</v>
+        <v>171.5847058823529</v>
       </c>
       <c r="P31" t="n">
-        <v>182.3808823529411</v>
+        <v>128.6885294117647</v>
       </c>
       <c r="Q31" t="n">
-        <v>182.3808823529411</v>
+        <v>128.6885294117647</v>
       </c>
       <c r="R31" t="n">
-        <v>121.5872549019608</v>
+        <v>85.79235294117645</v>
       </c>
       <c r="S31" t="n">
-        <v>182.3808823529411</v>
+        <v>128.6885294117647</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6510</v>
+        <v>6508</v>
       </c>
       <c r="B32" t="n">
-        <v>445.51</v>
+        <v>1478.96</v>
       </c>
       <c r="C32" t="n">
-        <v>1868.799999999999</v>
+        <v>6200.739999999998</v>
       </c>
       <c r="D32" t="n">
-        <v>201.5372549019608</v>
+        <v>668.7072549019606</v>
       </c>
       <c r="E32" t="n">
-        <v>183.2156862745098</v>
+        <v>607.9156862745097</v>
       </c>
       <c r="F32" t="n">
-        <v>164.8941176470588</v>
+        <v>547.1241176470587</v>
       </c>
       <c r="G32" t="n">
-        <v>146.5725490196078</v>
+        <v>486.3325490196077</v>
       </c>
       <c r="H32" t="n">
-        <v>146.5725490196078</v>
+        <v>486.3325490196077</v>
       </c>
       <c r="I32" t="n">
-        <v>146.5725490196078</v>
+        <v>486.3325490196077</v>
       </c>
       <c r="J32" t="n">
-        <v>128.2509803921568</v>
+        <v>425.5409803921568</v>
       </c>
       <c r="K32" t="n">
-        <v>91.60784313725489</v>
+        <v>303.9578431372548</v>
       </c>
       <c r="L32" t="n">
-        <v>91.60784313725489</v>
+        <v>303.9578431372548</v>
       </c>
       <c r="M32" t="n">
-        <v>201.5372549019608</v>
+        <v>668.7072549019606</v>
       </c>
       <c r="N32" t="n">
-        <v>91.60784313725489</v>
+        <v>303.9578431372548</v>
       </c>
       <c r="O32" t="n">
-        <v>73.2862745098039</v>
+        <v>243.1662745098039</v>
       </c>
       <c r="P32" t="n">
-        <v>54.96470588235292</v>
+        <v>182.3747058823529</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.96470588235292</v>
+        <v>182.3747058823529</v>
       </c>
       <c r="R32" t="n">
-        <v>36.64313725490195</v>
+        <v>121.5831372549019</v>
       </c>
       <c r="S32" t="n">
-        <v>54.96470588235292</v>
+        <v>182.3747058823529</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6509</v>
+        <v>6510</v>
       </c>
       <c r="B33" t="n">
-        <v>1121.61</v>
+        <v>445.48</v>
       </c>
       <c r="C33" t="n">
-        <v>4701.77</v>
+        <v>1868.67</v>
       </c>
       <c r="D33" t="n">
-        <v>507.0536274509803</v>
+        <v>201.5232352941176</v>
       </c>
       <c r="E33" t="n">
-        <v>460.9578431372549</v>
+        <v>183.2029411764706</v>
       </c>
       <c r="F33" t="n">
-        <v>414.8620588235294</v>
+        <v>164.8826470588235</v>
       </c>
       <c r="G33" t="n">
-        <v>368.7662745098039</v>
+        <v>146.5623529411764</v>
       </c>
       <c r="H33" t="n">
-        <v>368.7662745098039</v>
+        <v>146.5623529411764</v>
       </c>
       <c r="I33" t="n">
-        <v>368.7662745098039</v>
+        <v>146.5623529411764</v>
       </c>
       <c r="J33" t="n">
-        <v>322.6704901960784</v>
+        <v>128.2420588235294</v>
       </c>
       <c r="K33" t="n">
-        <v>230.4789215686274</v>
+        <v>91.60147058823529</v>
       </c>
       <c r="L33" t="n">
-        <v>230.4789215686274</v>
+        <v>91.60147058823529</v>
       </c>
       <c r="M33" t="n">
-        <v>507.0536274509803</v>
+        <v>201.5232352941176</v>
       </c>
       <c r="N33" t="n">
-        <v>230.4789215686274</v>
+        <v>91.60147058823529</v>
       </c>
       <c r="O33" t="n">
-        <v>184.383137254902</v>
+        <v>73.28117647058822</v>
       </c>
       <c r="P33" t="n">
-        <v>138.2873529411764</v>
+        <v>54.96088235294116</v>
       </c>
       <c r="Q33" t="n">
-        <v>138.2873529411764</v>
+        <v>54.96088235294116</v>
       </c>
       <c r="R33" t="n">
-        <v>92.19156862745098</v>
+        <v>36.64058823529411</v>
       </c>
       <c r="S33" t="n">
-        <v>138.2873529411764</v>
+        <v>54.96088235294116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6403</v>
+        <v>6509</v>
       </c>
       <c r="B34" t="n">
-        <v>1656.69</v>
+        <v>1121.59</v>
       </c>
       <c r="C34" t="n">
-        <v>7455.099999999999</v>
+        <v>4701.66</v>
       </c>
       <c r="D34" t="n">
-        <v>828.3444444444442</v>
+        <v>507.0417647058823</v>
       </c>
       <c r="E34" t="n">
-        <v>753.0404040404038</v>
+        <v>460.9470588235293</v>
       </c>
       <c r="F34" t="n">
-        <v>677.7363636363634</v>
+        <v>414.8523529411764</v>
       </c>
       <c r="G34" t="n">
-        <v>602.4323232323231</v>
+        <v>368.7576470588235</v>
       </c>
       <c r="H34" t="n">
-        <v>602.4323232323231</v>
+        <v>368.7576470588235</v>
       </c>
       <c r="I34" t="n">
-        <v>602.4323232323231</v>
+        <v>368.7576470588235</v>
       </c>
       <c r="J34" t="n">
-        <v>527.1282828282827</v>
+        <v>322.6629411764706</v>
       </c>
       <c r="K34" t="n">
-        <v>376.5202020202019</v>
+        <v>230.4735294117647</v>
       </c>
       <c r="L34" t="n">
-        <v>301.2161616161616</v>
+        <v>230.4735294117647</v>
       </c>
       <c r="M34" t="n">
-        <v>828.3444444444442</v>
+        <v>507.0417647058823</v>
       </c>
       <c r="N34" t="n">
-        <v>301.2161616161616</v>
+        <v>230.4735294117647</v>
       </c>
       <c r="O34" t="n">
-        <v>301.2161616161616</v>
+        <v>184.3788235294117</v>
       </c>
       <c r="P34" t="n">
-        <v>225.9121212121211</v>
+        <v>138.2841176470588</v>
       </c>
       <c r="Q34" t="n">
-        <v>225.9121212121211</v>
+        <v>138.2841176470588</v>
       </c>
       <c r="R34" t="n">
-        <v>150.6080808080808</v>
+        <v>92.18941176470587</v>
       </c>
       <c r="S34" t="n">
-        <v>150.6080808080808</v>
+        <v>138.2841176470588</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6511</v>
+        <v>6403</v>
       </c>
       <c r="B35" t="n">
-        <v>414.86</v>
+        <v>1656.63</v>
       </c>
       <c r="C35" t="n">
-        <v>1866.89</v>
+        <v>7454.859999999997</v>
       </c>
       <c r="D35" t="n">
-        <v>207.4322222222222</v>
+        <v>828.3177777777775</v>
       </c>
       <c r="E35" t="n">
-        <v>188.5747474747474</v>
+        <v>753.0161616161614</v>
       </c>
       <c r="F35" t="n">
-        <v>169.7172727272727</v>
+        <v>677.7145454545451</v>
       </c>
       <c r="G35" t="n">
-        <v>150.8597979797979</v>
+        <v>602.4129292929291</v>
       </c>
       <c r="H35" t="n">
-        <v>150.8597979797979</v>
+        <v>602.4129292929291</v>
       </c>
       <c r="I35" t="n">
-        <v>150.8597979797979</v>
+        <v>602.4129292929291</v>
       </c>
       <c r="J35" t="n">
-        <v>132.0023232323232</v>
+        <v>527.111313131313</v>
       </c>
       <c r="K35" t="n">
-        <v>94.28737373737371</v>
+        <v>376.5080808080807</v>
       </c>
       <c r="L35" t="n">
-        <v>75.42989898989897</v>
+        <v>301.2064646464646</v>
       </c>
       <c r="M35" t="n">
-        <v>207.4322222222222</v>
+        <v>828.3177777777775</v>
       </c>
       <c r="N35" t="n">
-        <v>75.42989898989897</v>
+        <v>301.2064646464646</v>
       </c>
       <c r="O35" t="n">
-        <v>75.42989898989897</v>
+        <v>301.2064646464646</v>
       </c>
       <c r="P35" t="n">
-        <v>56.57242424242423</v>
+        <v>225.9048484848484</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.57242424242423</v>
+        <v>225.9048484848484</v>
       </c>
       <c r="R35" t="n">
-        <v>37.71494949494949</v>
+        <v>150.6032323232323</v>
       </c>
       <c r="S35" t="n">
-        <v>37.71494949494949</v>
+        <v>150.6032323232323</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1207</v>
+        <v>6511</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>414.86</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
+        <v>1866.89</v>
+      </c>
+      <c r="D36" t="n">
+        <v>207.4322222222222</v>
+      </c>
+      <c r="E36" t="n">
+        <v>188.5747474747474</v>
+      </c>
+      <c r="F36" t="n">
+        <v>169.7172727272727</v>
+      </c>
+      <c r="G36" t="n">
+        <v>150.8597979797979</v>
+      </c>
+      <c r="H36" t="n">
+        <v>150.8597979797979</v>
+      </c>
+      <c r="I36" t="n">
+        <v>150.8597979797979</v>
+      </c>
+      <c r="J36" t="n">
+        <v>132.0023232323232</v>
+      </c>
+      <c r="K36" t="n">
+        <v>94.28737373737371</v>
+      </c>
+      <c r="L36" t="n">
+        <v>75.42989898989897</v>
+      </c>
+      <c r="M36" t="n">
+        <v>207.4322222222222</v>
+      </c>
+      <c r="N36" t="n">
+        <v>75.42989898989897</v>
+      </c>
+      <c r="O36" t="n">
+        <v>75.42989898989897</v>
+      </c>
+      <c r="P36" t="n">
+        <v>56.57242424242423</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>56.57242424242423</v>
+      </c>
+      <c r="R36" t="n">
+        <v>37.71494949494949</v>
+      </c>
+      <c r="S36" t="n">
+        <v>37.71494949494949</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1305</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.62</v>
-      </c>
+        <v>1207</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>2.789999999999999</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.3131632653061223</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.2562244897959183</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.2277551020408163</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.2277551020408163</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.2277551020408163</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.1992857142857142</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.1992857142857142</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.1708163265306122</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.1423469387755102</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.2846938775510203</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.1138775510204081</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0.1138775510204081</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0.08540816326530609</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.08540816326530609</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.05693877551020407</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0.08540816326530609</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1301</v>
-      </c>
-      <c r="B38" t="n">
-        <v>912.62</v>
-      </c>
+        <v>1305</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>4106.77</v>
-      </c>
-      <c r="D38" t="n">
-        <v>460.9639795918366</v>
-      </c>
-      <c r="E38" t="n">
-        <v>377.1523469387754</v>
-      </c>
-      <c r="F38" t="n">
-        <v>335.2465306122448</v>
-      </c>
-      <c r="G38" t="n">
-        <v>335.2465306122448</v>
-      </c>
-      <c r="H38" t="n">
-        <v>335.2465306122448</v>
-      </c>
-      <c r="I38" t="n">
-        <v>293.3407142857142</v>
-      </c>
-      <c r="J38" t="n">
-        <v>293.3407142857142</v>
-      </c>
-      <c r="K38" t="n">
-        <v>251.4348979591836</v>
-      </c>
-      <c r="L38" t="n">
-        <v>209.529081632653</v>
-      </c>
-      <c r="M38" t="n">
-        <v>419.0581632653061</v>
-      </c>
-      <c r="N38" t="n">
-        <v>167.6232653061224</v>
-      </c>
-      <c r="O38" t="n">
-        <v>167.6232653061224</v>
-      </c>
-      <c r="P38" t="n">
-        <v>125.7174489795918</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>125.7174489795918</v>
-      </c>
-      <c r="R38" t="n">
-        <v>83.81163265306121</v>
-      </c>
-      <c r="S38" t="n">
-        <v>125.7174489795918</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B39" t="n">
-        <v>689.15</v>
+        <v>912.6</v>
       </c>
       <c r="C39" t="n">
-        <v>3101.159999999999</v>
+        <v>4106.709999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>348.0893877551019</v>
+        <v>460.957244897959</v>
       </c>
       <c r="E39" t="n">
-        <v>284.8004081632652</v>
+        <v>377.1468367346937</v>
       </c>
       <c r="F39" t="n">
-        <v>253.1559183673469</v>
+        <v>335.2416326530611</v>
       </c>
       <c r="G39" t="n">
-        <v>253.1559183673469</v>
+        <v>335.2416326530611</v>
       </c>
       <c r="H39" t="n">
-        <v>253.1559183673469</v>
+        <v>335.2416326530611</v>
       </c>
       <c r="I39" t="n">
-        <v>221.5114285714285</v>
+        <v>293.3364285714285</v>
       </c>
       <c r="J39" t="n">
-        <v>221.5114285714285</v>
+        <v>293.3364285714285</v>
       </c>
       <c r="K39" t="n">
-        <v>189.8669387755101</v>
+        <v>251.4312244897958</v>
       </c>
       <c r="L39" t="n">
-        <v>158.2224489795918</v>
+        <v>209.5260204081632</v>
       </c>
       <c r="M39" t="n">
-        <v>316.4448979591836</v>
+        <v>419.0520408163264</v>
       </c>
       <c r="N39" t="n">
-        <v>126.5779591836734</v>
+        <v>167.6208163265306</v>
       </c>
       <c r="O39" t="n">
-        <v>126.5779591836734</v>
+        <v>167.6208163265306</v>
       </c>
       <c r="P39" t="n">
-        <v>94.93346938775507</v>
+        <v>125.7156122448979</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.93346938775507</v>
+        <v>125.7156122448979</v>
       </c>
       <c r="R39" t="n">
-        <v>63.28897959183671</v>
+        <v>83.81040816326528</v>
       </c>
       <c r="S39" t="n">
-        <v>94.93346938775507</v>
+        <v>125.7156122448979</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>208</v>
+        <v>1302</v>
       </c>
       <c r="B40" t="n">
-        <v>71.16</v>
+        <v>689.12</v>
       </c>
       <c r="C40" t="n">
-        <v>344.0599999999999</v>
+        <v>3101.039999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>30.65881188118811</v>
+        <v>348.0759183673468</v>
       </c>
       <c r="E40" t="n">
-        <v>27.25227722772277</v>
+        <v>284.7893877551019</v>
       </c>
       <c r="F40" t="n">
-        <v>23.84574257425742</v>
+        <v>253.1461224489795</v>
       </c>
       <c r="G40" t="n">
-        <v>20.43920792079208</v>
+        <v>253.1461224489795</v>
       </c>
       <c r="H40" t="n">
-        <v>27.25227722772277</v>
+        <v>253.1461224489795</v>
       </c>
       <c r="I40" t="n">
-        <v>20.43920792079208</v>
+        <v>221.5028571428571</v>
       </c>
       <c r="J40" t="n">
-        <v>23.84574257425742</v>
+        <v>221.5028571428571</v>
       </c>
       <c r="K40" t="n">
-        <v>23.84574257425742</v>
+        <v>189.8595918367346</v>
       </c>
       <c r="L40" t="n">
-        <v>17.03267326732673</v>
+        <v>158.2163265306122</v>
       </c>
       <c r="M40" t="n">
-        <v>30.65881188118811</v>
+        <v>316.4326530612244</v>
       </c>
       <c r="N40" t="n">
-        <v>17.03267326732673</v>
+        <v>126.5730612244898</v>
       </c>
       <c r="O40" t="n">
-        <v>17.03267326732673</v>
+        <v>126.5730612244898</v>
       </c>
       <c r="P40" t="n">
-        <v>13.62613861386138</v>
+        <v>94.9297959183673</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.03267326732673</v>
+        <v>94.9297959183673</v>
       </c>
       <c r="R40" t="n">
-        <v>13.62613861386138</v>
+        <v>63.28653061224488</v>
       </c>
       <c r="S40" t="n">
-        <v>20.43920792079208</v>
+        <v>94.9297959183673</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B41" t="n">
-        <v>94.2</v>
+        <v>71.16</v>
       </c>
       <c r="C41" t="n">
-        <v>455.0299999999999</v>
+        <v>344.0199999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>40.54722772277227</v>
+        <v>30.65524752475247</v>
       </c>
       <c r="E41" t="n">
-        <v>36.04198019801979</v>
+        <v>27.24910891089108</v>
       </c>
       <c r="F41" t="n">
-        <v>31.53673267326732</v>
+        <v>23.8429702970297</v>
       </c>
       <c r="G41" t="n">
-        <v>27.03148514851484</v>
+        <v>20.43683168316831</v>
       </c>
       <c r="H41" t="n">
-        <v>36.04198019801979</v>
+        <v>27.24910891089108</v>
       </c>
       <c r="I41" t="n">
-        <v>27.03148514851484</v>
+        <v>20.43683168316831</v>
       </c>
       <c r="J41" t="n">
-        <v>31.53673267326732</v>
+        <v>23.8429702970297</v>
       </c>
       <c r="K41" t="n">
-        <v>31.53673267326732</v>
+        <v>23.8429702970297</v>
       </c>
       <c r="L41" t="n">
-        <v>22.52623762376237</v>
+        <v>17.03069306930692</v>
       </c>
       <c r="M41" t="n">
-        <v>40.54722772277227</v>
+        <v>30.65524752475247</v>
       </c>
       <c r="N41" t="n">
-        <v>22.52623762376237</v>
+        <v>17.03069306930692</v>
       </c>
       <c r="O41" t="n">
-        <v>22.52623762376237</v>
+        <v>17.03069306930692</v>
       </c>
       <c r="P41" t="n">
-        <v>18.0209900990099</v>
+        <v>13.62455445544554</v>
       </c>
       <c r="Q41" t="n">
-        <v>22.52623762376237</v>
+        <v>17.03069306930692</v>
       </c>
       <c r="R41" t="n">
-        <v>18.0209900990099</v>
+        <v>13.62455445544554</v>
       </c>
       <c r="S41" t="n">
-        <v>27.03148514851484</v>
+        <v>20.43683168316831</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2401</v>
+        <v>207</v>
       </c>
       <c r="B42" t="n">
-        <v>1646.72</v>
+        <v>94.19</v>
       </c>
       <c r="C42" t="n">
-        <v>8592.369999999999</v>
+        <v>454.9499999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>1128.29101010101</v>
+        <v>40.54009900990098</v>
       </c>
       <c r="E42" t="n">
-        <v>954.7077777777778</v>
+        <v>36.03564356435643</v>
       </c>
       <c r="F42" t="n">
-        <v>781.1245454545455</v>
+        <v>31.53118811881188</v>
       </c>
       <c r="G42" t="n">
-        <v>781.1245454545455</v>
+        <v>27.02673267326732</v>
       </c>
       <c r="H42" t="n">
-        <v>781.1245454545455</v>
+        <v>36.03564356435643</v>
       </c>
       <c r="I42" t="n">
-        <v>694.3329292929293</v>
+        <v>27.02673267326732</v>
       </c>
       <c r="J42" t="n">
-        <v>520.749696969697</v>
+        <v>31.53118811881188</v>
       </c>
       <c r="K42" t="n">
-        <v>433.9580808080809</v>
+        <v>31.53118811881188</v>
       </c>
       <c r="L42" t="n">
-        <v>347.1664646464646</v>
+        <v>22.52227722772277</v>
       </c>
       <c r="M42" t="n">
-        <v>1041.499393939394</v>
+        <v>40.54009900990098</v>
       </c>
       <c r="N42" t="n">
-        <v>347.1664646464646</v>
+        <v>22.52227722772277</v>
       </c>
       <c r="O42" t="n">
-        <v>260.3748484848485</v>
+        <v>22.52227722772277</v>
       </c>
       <c r="P42" t="n">
-        <v>173.5832323232323</v>
+        <v>18.01782178217821</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.5832323232323</v>
+        <v>22.52227722772277</v>
       </c>
       <c r="R42" t="n">
-        <v>86.79161616161616</v>
+        <v>18.01782178217821</v>
       </c>
       <c r="S42" t="n">
-        <v>86.79161616161616</v>
+        <v>27.02673267326732</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>203</v>
+        <v>2401</v>
       </c>
       <c r="B43" t="n">
-        <v>269.47</v>
+        <v>1646.65</v>
       </c>
       <c r="C43" t="n">
-        <v>1302.69</v>
+        <v>8592.040000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>116.0812871287129</v>
+        <v>1128.247676767677</v>
       </c>
       <c r="E43" t="n">
-        <v>103.1833663366337</v>
+        <v>954.6711111111111</v>
       </c>
       <c r="F43" t="n">
-        <v>90.28544554455445</v>
+        <v>781.0945454545455</v>
       </c>
       <c r="G43" t="n">
-        <v>77.38752475247523</v>
+        <v>781.0945454545455</v>
       </c>
       <c r="H43" t="n">
-        <v>103.1833663366337</v>
+        <v>781.0945454545455</v>
       </c>
       <c r="I43" t="n">
-        <v>77.38752475247523</v>
+        <v>694.3062626262627</v>
       </c>
       <c r="J43" t="n">
-        <v>90.28544554455445</v>
+        <v>520.729696969697</v>
       </c>
       <c r="K43" t="n">
-        <v>90.28544554455445</v>
+        <v>433.9414141414142</v>
       </c>
       <c r="L43" t="n">
-        <v>64.48960396039602</v>
+        <v>347.1531313131313</v>
       </c>
       <c r="M43" t="n">
-        <v>116.0812871287129</v>
+        <v>1041.459393939394</v>
       </c>
       <c r="N43" t="n">
-        <v>64.48960396039602</v>
+        <v>347.1531313131313</v>
       </c>
       <c r="O43" t="n">
-        <v>64.48960396039602</v>
+        <v>260.3648484848485</v>
       </c>
       <c r="P43" t="n">
-        <v>51.59168316831683</v>
+        <v>173.5765656565657</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.48960396039602</v>
+        <v>173.5765656565657</v>
       </c>
       <c r="R43" t="n">
-        <v>51.59168316831683</v>
+        <v>86.78828282828283</v>
       </c>
       <c r="S43" t="n">
-        <v>77.38752475247523</v>
+        <v>86.78828282828283</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B44" t="n">
-        <v>323.05</v>
+        <v>269.44</v>
       </c>
       <c r="C44" t="n">
-        <v>1562.2</v>
+        <v>1302.54</v>
       </c>
       <c r="D44" t="n">
-        <v>139.2059405940594</v>
+        <v>116.0679207920792</v>
       </c>
       <c r="E44" t="n">
-        <v>123.7386138613861</v>
+        <v>103.1714851485148</v>
       </c>
       <c r="F44" t="n">
-        <v>108.2712871287129</v>
+        <v>90.27504950495049</v>
       </c>
       <c r="G44" t="n">
-        <v>92.80396039603959</v>
+        <v>77.37861386138611</v>
       </c>
       <c r="H44" t="n">
-        <v>123.7386138613861</v>
+        <v>103.1714851485148</v>
       </c>
       <c r="I44" t="n">
-        <v>92.80396039603959</v>
+        <v>77.37861386138611</v>
       </c>
       <c r="J44" t="n">
-        <v>108.2712871287129</v>
+        <v>90.27504950495049</v>
       </c>
       <c r="K44" t="n">
-        <v>108.2712871287129</v>
+        <v>90.27504950495049</v>
       </c>
       <c r="L44" t="n">
-        <v>77.33663366336631</v>
+        <v>64.48217821782177</v>
       </c>
       <c r="M44" t="n">
-        <v>139.2059405940594</v>
+        <v>116.0679207920792</v>
       </c>
       <c r="N44" t="n">
-        <v>77.33663366336631</v>
+        <v>64.48217821782177</v>
       </c>
       <c r="O44" t="n">
-        <v>77.33663366336631</v>
+        <v>64.48217821782177</v>
       </c>
       <c r="P44" t="n">
-        <v>61.86930693069306</v>
+        <v>51.58574257425742</v>
       </c>
       <c r="Q44" t="n">
-        <v>77.33663366336631</v>
+        <v>64.48217821782177</v>
       </c>
       <c r="R44" t="n">
-        <v>61.86930693069306</v>
+        <v>51.58574257425742</v>
       </c>
       <c r="S44" t="n">
-        <v>92.80396039603959</v>
+        <v>77.37861386138611</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6609</v>
+        <v>204</v>
       </c>
       <c r="B45" t="n">
-        <v>1506.11</v>
+        <v>323.02</v>
       </c>
       <c r="C45" t="n">
-        <v>6313.559999999999</v>
+        <v>1562.06</v>
       </c>
       <c r="D45" t="n">
-        <v>680.8741176470587</v>
+        <v>139.1934653465346</v>
       </c>
       <c r="E45" t="n">
-        <v>618.9764705882352</v>
+        <v>123.7275247524752</v>
       </c>
       <c r="F45" t="n">
-        <v>557.0788235294117</v>
+        <v>108.2615841584158</v>
       </c>
       <c r="G45" t="n">
-        <v>495.1811764705882</v>
+        <v>92.79564356435641</v>
       </c>
       <c r="H45" t="n">
-        <v>495.1811764705882</v>
+        <v>123.7275247524752</v>
       </c>
       <c r="I45" t="n">
-        <v>495.1811764705882</v>
+        <v>92.79564356435641</v>
       </c>
       <c r="J45" t="n">
-        <v>433.2835294117647</v>
+        <v>108.2615841584158</v>
       </c>
       <c r="K45" t="n">
-        <v>309.4882352941176</v>
+        <v>108.2615841584158</v>
       </c>
       <c r="L45" t="n">
-        <v>309.4882352941176</v>
+        <v>77.32970297029701</v>
       </c>
       <c r="M45" t="n">
-        <v>680.8741176470587</v>
+        <v>139.1934653465346</v>
       </c>
       <c r="N45" t="n">
-        <v>309.4882352941176</v>
+        <v>77.32970297029701</v>
       </c>
       <c r="O45" t="n">
-        <v>247.5905882352941</v>
+        <v>77.32970297029701</v>
       </c>
       <c r="P45" t="n">
-        <v>185.6929411764706</v>
+        <v>61.86376237623761</v>
       </c>
       <c r="Q45" t="n">
-        <v>185.6929411764706</v>
+        <v>77.32970297029701</v>
       </c>
       <c r="R45" t="n">
-        <v>123.795294117647</v>
+        <v>61.86376237623761</v>
       </c>
       <c r="S45" t="n">
-        <v>185.6929411764706</v>
+        <v>92.79564356435641</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6601</v>
+        <v>6609</v>
       </c>
       <c r="B46" t="n">
-        <v>1095.57</v>
+        <v>1506.08</v>
       </c>
       <c r="C46" t="n">
-        <v>4569.499999999999</v>
+        <v>6313.42</v>
       </c>
       <c r="D46" t="n">
-        <v>492.7892156862744</v>
+        <v>680.859019607843</v>
       </c>
       <c r="E46" t="n">
-        <v>447.9901960784313</v>
+        <v>618.9627450980391</v>
       </c>
       <c r="F46" t="n">
-        <v>403.1911764705881</v>
+        <v>557.0664705882351</v>
       </c>
       <c r="G46" t="n">
-        <v>358.392156862745</v>
+        <v>495.1701960784313</v>
       </c>
       <c r="H46" t="n">
-        <v>358.392156862745</v>
+        <v>495.1701960784313</v>
       </c>
       <c r="I46" t="n">
-        <v>358.392156862745</v>
+        <v>495.1701960784313</v>
       </c>
       <c r="J46" t="n">
-        <v>313.5931372549019</v>
+        <v>433.2739215686274</v>
       </c>
       <c r="K46" t="n">
-        <v>223.9950980392157</v>
+        <v>309.4813725490196</v>
       </c>
       <c r="L46" t="n">
-        <v>223.9950980392157</v>
+        <v>309.4813725490196</v>
       </c>
       <c r="M46" t="n">
-        <v>492.7892156862744</v>
+        <v>680.859019607843</v>
       </c>
       <c r="N46" t="n">
-        <v>223.9950980392157</v>
+        <v>309.4813725490196</v>
       </c>
       <c r="O46" t="n">
-        <v>179.1960784313725</v>
+        <v>247.5850980392156</v>
       </c>
       <c r="P46" t="n">
-        <v>134.3970588235294</v>
+        <v>185.6888235294117</v>
       </c>
       <c r="Q46" t="n">
-        <v>134.3970588235294</v>
+        <v>185.6888235294117</v>
       </c>
       <c r="R46" t="n">
-        <v>89.59803921568626</v>
+        <v>123.7925490196078</v>
       </c>
       <c r="S46" t="n">
-        <v>134.3970588235294</v>
+        <v>185.6888235294117</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6506</v>
+        <v>6601</v>
       </c>
       <c r="B47" t="n">
-        <v>1302.12</v>
+        <v>1095.57</v>
       </c>
       <c r="C47" t="n">
-        <v>5859.549999999998</v>
+        <v>4569.499999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>651.0611111111109</v>
+        <v>492.7892156862744</v>
       </c>
       <c r="E47" t="n">
-        <v>591.8737373737372</v>
+        <v>447.9901960784313</v>
       </c>
       <c r="F47" t="n">
-        <v>532.6863636363635</v>
+        <v>403.1911764705881</v>
       </c>
       <c r="G47" t="n">
-        <v>473.4989898989898</v>
+        <v>358.392156862745</v>
       </c>
       <c r="H47" t="n">
-        <v>473.4989898989898</v>
+        <v>358.392156862745</v>
       </c>
       <c r="I47" t="n">
-        <v>473.4989898989898</v>
+        <v>358.392156862745</v>
       </c>
       <c r="J47" t="n">
-        <v>414.3116161616161</v>
+        <v>313.5931372549019</v>
       </c>
       <c r="K47" t="n">
-        <v>295.9368686868686</v>
+        <v>223.9950980392157</v>
       </c>
       <c r="L47" t="n">
-        <v>236.7494949494949</v>
+        <v>223.9950980392157</v>
       </c>
       <c r="M47" t="n">
-        <v>651.0611111111109</v>
+        <v>492.7892156862744</v>
       </c>
       <c r="N47" t="n">
-        <v>236.7494949494949</v>
+        <v>223.9950980392157</v>
       </c>
       <c r="O47" t="n">
-        <v>236.7494949494949</v>
+        <v>179.1960784313725</v>
       </c>
       <c r="P47" t="n">
-        <v>177.5621212121212</v>
+        <v>134.3970588235294</v>
       </c>
       <c r="Q47" t="n">
-        <v>177.5621212121212</v>
+        <v>134.3970588235294</v>
       </c>
       <c r="R47" t="n">
-        <v>118.3747474747475</v>
+        <v>89.59803921568626</v>
       </c>
       <c r="S47" t="n">
-        <v>118.3747474747475</v>
+        <v>134.3970588235294</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6801</v>
+        <v>6506</v>
       </c>
       <c r="B48" t="n">
-        <v>7141.4</v>
+        <v>1302.08</v>
       </c>
       <c r="C48" t="n">
-        <v>37442.38999999999</v>
+        <v>5859.379999999998</v>
       </c>
       <c r="D48" t="n">
-        <v>4493.086799999999</v>
+        <v>651.042222222222</v>
       </c>
       <c r="E48" t="n">
-        <v>3744.238999999999</v>
+        <v>591.8565656565655</v>
       </c>
       <c r="F48" t="n">
-        <v>3744.238999999999</v>
+        <v>532.6709090909088</v>
       </c>
       <c r="G48" t="n">
-        <v>3744.238999999999</v>
+        <v>473.4852525252524</v>
       </c>
       <c r="H48" t="n">
-        <v>3369.815099999999</v>
+        <v>473.4852525252524</v>
       </c>
       <c r="I48" t="n">
-        <v>2620.9673</v>
+        <v>473.4852525252524</v>
       </c>
       <c r="J48" t="n">
-        <v>2246.5434</v>
+        <v>414.2995959595959</v>
       </c>
       <c r="K48" t="n">
-        <v>1872.1195</v>
+        <v>295.9282828282828</v>
       </c>
       <c r="L48" t="n">
-        <v>1497.6956</v>
+        <v>236.7426262626262</v>
       </c>
       <c r="M48" t="n">
-        <v>4118.662899999999</v>
+        <v>651.042222222222</v>
       </c>
       <c r="N48" t="n">
-        <v>1497.6956</v>
+        <v>236.7426262626262</v>
       </c>
       <c r="O48" t="n">
-        <v>1123.2717</v>
+        <v>236.7426262626262</v>
       </c>
       <c r="P48" t="n">
-        <v>1123.2717</v>
+        <v>177.5569696969696</v>
       </c>
       <c r="Q48" t="n">
-        <v>748.8477999999999</v>
+        <v>177.5569696969696</v>
       </c>
       <c r="R48" t="n">
-        <v>748.8477999999999</v>
+        <v>118.3713131313131</v>
       </c>
       <c r="S48" t="n">
-        <v>748.8477999999999</v>
+        <v>118.3713131313131</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1101</v>
+        <v>6801</v>
       </c>
       <c r="B49" t="n">
-        <v>2169.71</v>
+        <v>7141.21</v>
       </c>
       <c r="C49" t="n">
-        <v>8915.029999999999</v>
+        <v>37441.55999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>1170.660505050505</v>
+        <v>4492.987199999999</v>
       </c>
       <c r="E49" t="n">
-        <v>900.5080808080809</v>
+        <v>3744.155999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>810.4572727272727</v>
+        <v>3744.155999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>810.4572727272727</v>
+        <v>3744.155999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>810.4572727272727</v>
+        <v>3369.740399999999</v>
       </c>
       <c r="I49" t="n">
-        <v>720.4064646464647</v>
+        <v>2620.9092</v>
       </c>
       <c r="J49" t="n">
-        <v>540.3048484848484</v>
+        <v>2246.493599999999</v>
       </c>
       <c r="K49" t="n">
-        <v>360.2032323232323</v>
+        <v>1872.078</v>
       </c>
       <c r="L49" t="n">
-        <v>360.2032323232323</v>
+        <v>1497.6624</v>
       </c>
       <c r="M49" t="n">
-        <v>1080.609696969697</v>
+        <v>4118.571599999998</v>
       </c>
       <c r="N49" t="n">
-        <v>360.2032323232323</v>
+        <v>1497.6624</v>
       </c>
       <c r="O49" t="n">
-        <v>270.1524242424242</v>
+        <v>1123.2468</v>
       </c>
       <c r="P49" t="n">
-        <v>270.1524242424242</v>
+        <v>1123.2468</v>
       </c>
       <c r="Q49" t="n">
-        <v>180.1016161616162</v>
+        <v>748.8311999999999</v>
       </c>
       <c r="R49" t="n">
-        <v>90.05080808080808</v>
+        <v>748.8311999999999</v>
       </c>
       <c r="S49" t="n">
-        <v>180.1016161616162</v>
+        <v>748.8311999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1104</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1518.01</v>
-      </c>
+        <v>6608</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>6221.07</v>
-      </c>
-      <c r="D50" t="n">
-        <v>816.9081818181817</v>
-      </c>
-      <c r="E50" t="n">
-        <v>628.3909090909091</v>
-      </c>
-      <c r="F50" t="n">
-        <v>565.5518181818181</v>
-      </c>
-      <c r="G50" t="n">
-        <v>565.5518181818181</v>
-      </c>
-      <c r="H50" t="n">
-        <v>565.5518181818181</v>
-      </c>
-      <c r="I50" t="n">
-        <v>502.7127272727272</v>
-      </c>
-      <c r="J50" t="n">
-        <v>377.0345454545454</v>
-      </c>
-      <c r="K50" t="n">
-        <v>251.3563636363636</v>
-      </c>
-      <c r="L50" t="n">
-        <v>251.3563636363636</v>
-      </c>
-      <c r="M50" t="n">
-        <v>754.0690909090908</v>
-      </c>
-      <c r="N50" t="n">
-        <v>251.3563636363636</v>
-      </c>
-      <c r="O50" t="n">
-        <v>188.5172727272727</v>
-      </c>
-      <c r="P50" t="n">
-        <v>188.5172727272727</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>125.6781818181818</v>
-      </c>
-      <c r="R50" t="n">
-        <v>62.8390909090909</v>
-      </c>
-      <c r="S50" t="n">
-        <v>125.6781818181818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B51" t="n">
-        <v>1148.83</v>
+        <v>2169.69</v>
       </c>
       <c r="C51" t="n">
-        <v>4720.939999999999</v>
+        <v>8914.969999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>619.9214141414141</v>
+        <v>1170.652626262626</v>
       </c>
       <c r="E51" t="n">
-        <v>476.8626262626262</v>
+        <v>900.5020202020202</v>
       </c>
       <c r="F51" t="n">
-        <v>429.1763636363635</v>
+        <v>810.451818181818</v>
       </c>
       <c r="G51" t="n">
-        <v>429.1763636363635</v>
+        <v>810.451818181818</v>
       </c>
       <c r="H51" t="n">
-        <v>429.1763636363635</v>
+        <v>810.451818181818</v>
       </c>
       <c r="I51" t="n">
-        <v>381.4901010101009</v>
+        <v>720.4016161616161</v>
       </c>
       <c r="J51" t="n">
-        <v>286.1175757575757</v>
+        <v>540.3012121212121</v>
       </c>
       <c r="K51" t="n">
-        <v>190.7450505050505</v>
+        <v>360.200808080808</v>
       </c>
       <c r="L51" t="n">
-        <v>190.7450505050505</v>
+        <v>360.200808080808</v>
       </c>
       <c r="M51" t="n">
-        <v>572.2351515151514</v>
+        <v>1080.602424242424</v>
       </c>
       <c r="N51" t="n">
-        <v>190.7450505050505</v>
+        <v>360.200808080808</v>
       </c>
       <c r="O51" t="n">
-        <v>143.0587878787879</v>
+        <v>270.150606060606</v>
       </c>
       <c r="P51" t="n">
-        <v>143.0587878787879</v>
+        <v>270.150606060606</v>
       </c>
       <c r="Q51" t="n">
-        <v>95.37252525252524</v>
+        <v>180.100404040404</v>
       </c>
       <c r="R51" t="n">
-        <v>47.68626262626262</v>
+        <v>90.05020202020201</v>
       </c>
       <c r="S51" t="n">
-        <v>95.37252525252524</v>
+        <v>180.100404040404</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B52" t="n">
-        <v>845.02</v>
+        <v>1518.01</v>
       </c>
       <c r="C52" t="n">
-        <v>3473.88</v>
+        <v>6221.07</v>
       </c>
       <c r="D52" t="n">
-        <v>456.1660606060606</v>
+        <v>816.9081818181817</v>
       </c>
       <c r="E52" t="n">
-        <v>350.8969696969697</v>
+        <v>628.3909090909091</v>
       </c>
       <c r="F52" t="n">
-        <v>315.8072727272727</v>
+        <v>565.5518181818181</v>
       </c>
       <c r="G52" t="n">
-        <v>315.8072727272727</v>
+        <v>565.5518181818181</v>
       </c>
       <c r="H52" t="n">
-        <v>315.8072727272727</v>
+        <v>565.5518181818181</v>
       </c>
       <c r="I52" t="n">
-        <v>280.7175757575757</v>
+        <v>502.7127272727272</v>
       </c>
       <c r="J52" t="n">
-        <v>210.5381818181818</v>
+        <v>377.0345454545454</v>
       </c>
       <c r="K52" t="n">
-        <v>140.3587878787879</v>
+        <v>251.3563636363636</v>
       </c>
       <c r="L52" t="n">
-        <v>140.3587878787879</v>
+        <v>251.3563636363636</v>
       </c>
       <c r="M52" t="n">
-        <v>421.0763636363636</v>
+        <v>754.0690909090908</v>
       </c>
       <c r="N52" t="n">
-        <v>140.3587878787879</v>
+        <v>251.3563636363636</v>
       </c>
       <c r="O52" t="n">
-        <v>105.2690909090909</v>
+        <v>188.5172727272727</v>
       </c>
       <c r="P52" t="n">
-        <v>105.2690909090909</v>
+        <v>188.5172727272727</v>
       </c>
       <c r="Q52" t="n">
-        <v>70.17939393939393</v>
+        <v>125.6781818181818</v>
       </c>
       <c r="R52" t="n">
-        <v>35.08969696969697</v>
+        <v>62.8390909090909</v>
       </c>
       <c r="S52" t="n">
-        <v>70.17939393939393</v>
+        <v>125.6781818181818</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1202</v>
+        <v>1103</v>
       </c>
       <c r="B53" t="n">
-        <v>814.54</v>
+        <v>1148.82</v>
       </c>
       <c r="C53" t="n">
-        <v>3363.01</v>
+        <v>4720.879999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>395.6482352941177</v>
+        <v>619.9135353535353</v>
       </c>
       <c r="E53" t="n">
-        <v>329.7068627450981</v>
+        <v>476.8565656565656</v>
       </c>
       <c r="F53" t="n">
-        <v>296.7361764705882</v>
+        <v>429.170909090909</v>
       </c>
       <c r="G53" t="n">
-        <v>296.7361764705882</v>
+        <v>429.170909090909</v>
       </c>
       <c r="H53" t="n">
-        <v>296.7361764705882</v>
+        <v>429.170909090909</v>
       </c>
       <c r="I53" t="n">
-        <v>263.7654901960784</v>
+        <v>381.4852525252525</v>
       </c>
       <c r="J53" t="n">
-        <v>197.8241176470588</v>
+        <v>286.1139393939394</v>
       </c>
       <c r="K53" t="n">
-        <v>164.853431372549</v>
+        <v>190.7426262626263</v>
       </c>
       <c r="L53" t="n">
-        <v>131.8827450980392</v>
+        <v>190.7426262626263</v>
       </c>
       <c r="M53" t="n">
-        <v>362.6775490196079</v>
+        <v>572.2278787878788</v>
       </c>
       <c r="N53" t="n">
-        <v>164.853431372549</v>
+        <v>190.7426262626263</v>
       </c>
       <c r="O53" t="n">
-        <v>131.8827450980392</v>
+        <v>143.0569696969697</v>
       </c>
       <c r="P53" t="n">
-        <v>98.91205882352942</v>
+        <v>143.0569696969697</v>
       </c>
       <c r="Q53" t="n">
-        <v>98.91205882352942</v>
+        <v>95.37131313131313</v>
       </c>
       <c r="R53" t="n">
-        <v>65.9413725490196</v>
+        <v>47.68565656565656</v>
       </c>
       <c r="S53" t="n">
-        <v>65.9413725490196</v>
+        <v>95.37131313131313</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1203</v>
+        <v>1102</v>
       </c>
       <c r="B54" t="n">
-        <v>627.85</v>
+        <v>844.99</v>
       </c>
       <c r="C54" t="n">
-        <v>2592.15</v>
+        <v>3473.76</v>
       </c>
       <c r="D54" t="n">
-        <v>304.9588235294117</v>
+        <v>456.150303030303</v>
       </c>
       <c r="E54" t="n">
-        <v>254.1323529411765</v>
+        <v>350.8848484848485</v>
       </c>
       <c r="F54" t="n">
-        <v>228.7191176470588</v>
+        <v>315.7963636363636</v>
       </c>
       <c r="G54" t="n">
-        <v>228.7191176470588</v>
+        <v>315.7963636363636</v>
       </c>
       <c r="H54" t="n">
-        <v>228.7191176470588</v>
+        <v>315.7963636363636</v>
       </c>
       <c r="I54" t="n">
-        <v>203.3058823529412</v>
+        <v>280.7078787878788</v>
       </c>
       <c r="J54" t="n">
-        <v>152.4794117647059</v>
+        <v>210.5309090909091</v>
       </c>
       <c r="K54" t="n">
-        <v>127.0661764705882</v>
+        <v>140.3539393939394</v>
       </c>
       <c r="L54" t="n">
-        <v>101.6529411764706</v>
+        <v>140.3539393939394</v>
       </c>
       <c r="M54" t="n">
-        <v>279.5455882352941</v>
+        <v>421.0618181818182</v>
       </c>
       <c r="N54" t="n">
-        <v>127.0661764705882</v>
+        <v>140.3539393939394</v>
       </c>
       <c r="O54" t="n">
-        <v>101.6529411764706</v>
+        <v>105.2654545454545</v>
       </c>
       <c r="P54" t="n">
-        <v>76.23970588235294</v>
+        <v>105.2654545454545</v>
       </c>
       <c r="Q54" t="n">
-        <v>76.23970588235294</v>
+        <v>70.17696969696969</v>
       </c>
       <c r="R54" t="n">
-        <v>50.8264705882353</v>
+        <v>35.08848484848485</v>
       </c>
       <c r="S54" t="n">
-        <v>50.8264705882353</v>
+        <v>70.17696969696969</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2202</v>
+        <v>1202</v>
       </c>
       <c r="B55" t="n">
-        <v>1864.51</v>
+        <v>814.51</v>
       </c>
       <c r="C55" t="n">
-        <v>7639.229999999997</v>
+        <v>3362.88</v>
       </c>
       <c r="D55" t="n">
-        <v>935.4159183673465</v>
+        <v>395.6329411764706</v>
       </c>
       <c r="E55" t="n">
-        <v>779.5132653061222</v>
+        <v>329.6941176470588</v>
       </c>
       <c r="F55" t="n">
-        <v>701.5619387755099</v>
+        <v>296.7247058823529</v>
       </c>
       <c r="G55" t="n">
-        <v>701.5619387755099</v>
+        <v>296.7247058823529</v>
       </c>
       <c r="H55" t="n">
-        <v>623.6106122448978</v>
+        <v>296.7247058823529</v>
       </c>
       <c r="I55" t="n">
-        <v>545.6592857142856</v>
+        <v>263.7552941176471</v>
       </c>
       <c r="J55" t="n">
-        <v>467.7079591836733</v>
+        <v>197.8164705882353</v>
       </c>
       <c r="K55" t="n">
-        <v>389.7566326530611</v>
+        <v>164.8470588235294</v>
       </c>
       <c r="L55" t="n">
-        <v>389.7566326530611</v>
+        <v>131.8776470588235</v>
       </c>
       <c r="M55" t="n">
-        <v>857.4645918367344</v>
+        <v>362.6635294117647</v>
       </c>
       <c r="N55" t="n">
-        <v>311.8053061224489</v>
+        <v>164.8470588235294</v>
       </c>
       <c r="O55" t="n">
-        <v>233.8539795918366</v>
+        <v>131.8776470588235</v>
       </c>
       <c r="P55" t="n">
-        <v>233.8539795918366</v>
+        <v>98.90823529411765</v>
       </c>
       <c r="Q55" t="n">
-        <v>155.9026530612244</v>
+        <v>98.90823529411765</v>
       </c>
       <c r="R55" t="n">
-        <v>155.9026530612244</v>
+        <v>65.93882352941176</v>
       </c>
       <c r="S55" t="n">
-        <v>155.9026530612244</v>
+        <v>65.93882352941176</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2201</v>
+        <v>1203</v>
       </c>
       <c r="B56" t="n">
-        <v>1857.58</v>
+        <v>627.83</v>
       </c>
       <c r="C56" t="n">
-        <v>7546.939999999997</v>
+        <v>2592.06</v>
       </c>
       <c r="D56" t="n">
-        <v>924.1151020408159</v>
+        <v>304.9482352941176</v>
       </c>
       <c r="E56" t="n">
-        <v>770.0959183673467</v>
+        <v>254.1235294117647</v>
       </c>
       <c r="F56" t="n">
-        <v>693.0863265306119</v>
+        <v>228.7111764705882</v>
       </c>
       <c r="G56" t="n">
-        <v>693.0863265306119</v>
+        <v>228.7111764705882</v>
       </c>
       <c r="H56" t="n">
-        <v>616.0767346938774</v>
+        <v>228.7111764705882</v>
       </c>
       <c r="I56" t="n">
-        <v>539.0671428571427</v>
+        <v>203.2988235294117</v>
       </c>
       <c r="J56" t="n">
-        <v>462.057551020408</v>
+        <v>152.4741176470588</v>
       </c>
       <c r="K56" t="n">
-        <v>385.0479591836734</v>
+        <v>127.0617647058824</v>
       </c>
       <c r="L56" t="n">
-        <v>385.0479591836734</v>
+        <v>101.6494117647059</v>
       </c>
       <c r="M56" t="n">
-        <v>847.1055102040813</v>
+        <v>279.5358823529412</v>
       </c>
       <c r="N56" t="n">
-        <v>308.0383673469387</v>
+        <v>127.0617647058824</v>
       </c>
       <c r="O56" t="n">
-        <v>231.028775510204</v>
+        <v>101.6494117647059</v>
       </c>
       <c r="P56" t="n">
-        <v>231.028775510204</v>
+        <v>76.23705882352941</v>
       </c>
       <c r="Q56" t="n">
-        <v>154.0191836734693</v>
+        <v>76.23705882352941</v>
       </c>
       <c r="R56" t="n">
-        <v>154.0191836734693</v>
+        <v>50.82470588235294</v>
       </c>
       <c r="S56" t="n">
-        <v>154.0191836734693</v>
+        <v>50.82470588235294</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2302</v>
+        <v>2202</v>
       </c>
       <c r="B57" t="n">
-        <v>1026.51</v>
+        <v>1864.48</v>
       </c>
       <c r="C57" t="n">
-        <v>4304.36</v>
+        <v>7639.069999999998</v>
       </c>
       <c r="D57" t="n">
-        <v>511.409108910891</v>
+        <v>935.3963265306119</v>
       </c>
       <c r="E57" t="n">
-        <v>426.1742574257426</v>
+        <v>779.49693877551</v>
       </c>
       <c r="F57" t="n">
-        <v>383.5568316831683</v>
+        <v>701.5472448979589</v>
       </c>
       <c r="G57" t="n">
-        <v>383.5568316831683</v>
+        <v>701.5472448979589</v>
       </c>
       <c r="H57" t="n">
-        <v>383.5568316831683</v>
+        <v>623.597551020408</v>
       </c>
       <c r="I57" t="n">
-        <v>340.939405940594</v>
+        <v>545.647857142857</v>
       </c>
       <c r="J57" t="n">
-        <v>298.3219801980198</v>
+        <v>467.6981632653059</v>
       </c>
       <c r="K57" t="n">
-        <v>213.0871287128713</v>
+        <v>389.748469387755</v>
       </c>
       <c r="L57" t="n">
-        <v>170.469702970297</v>
+        <v>389.748469387755</v>
       </c>
       <c r="M57" t="n">
-        <v>468.7916831683168</v>
+        <v>857.4466326530609</v>
       </c>
       <c r="N57" t="n">
-        <v>170.469702970297</v>
+        <v>311.798775510204</v>
       </c>
       <c r="O57" t="n">
-        <v>170.469702970297</v>
+        <v>233.849081632653</v>
       </c>
       <c r="P57" t="n">
-        <v>127.8522772277228</v>
+        <v>233.849081632653</v>
       </c>
       <c r="Q57" t="n">
-        <v>85.23485148514851</v>
+        <v>155.899387755102</v>
       </c>
       <c r="R57" t="n">
-        <v>85.23485148514851</v>
+        <v>155.899387755102</v>
       </c>
       <c r="S57" t="n">
-        <v>85.23485148514851</v>
+        <v>155.899387755102</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2301</v>
+        <v>2201</v>
       </c>
       <c r="B58" t="n">
-        <v>1825.59</v>
+        <v>1857.58</v>
       </c>
       <c r="C58" t="n">
-        <v>7640.11</v>
+        <v>7546.939999999997</v>
       </c>
       <c r="D58" t="n">
-        <v>907.7358415841584</v>
+        <v>924.1151020408159</v>
       </c>
       <c r="E58" t="n">
-        <v>756.4465346534654</v>
+        <v>770.0959183673467</v>
       </c>
       <c r="F58" t="n">
-        <v>680.8018811881187</v>
+        <v>693.0863265306119</v>
       </c>
       <c r="G58" t="n">
-        <v>680.8018811881187</v>
+        <v>693.0863265306119</v>
       </c>
       <c r="H58" t="n">
-        <v>680.8018811881187</v>
+        <v>616.0767346938774</v>
       </c>
       <c r="I58" t="n">
-        <v>605.1572277227723</v>
+        <v>539.0671428571427</v>
       </c>
       <c r="J58" t="n">
-        <v>529.5125742574257</v>
+        <v>462.057551020408</v>
       </c>
       <c r="K58" t="n">
-        <v>378.2232673267327</v>
+        <v>385.0479591836734</v>
       </c>
       <c r="L58" t="n">
-        <v>302.5786138613861</v>
+        <v>385.0479591836734</v>
       </c>
       <c r="M58" t="n">
-        <v>832.0911881188118</v>
+        <v>847.1055102040813</v>
       </c>
       <c r="N58" t="n">
-        <v>302.5786138613861</v>
+        <v>308.0383673469387</v>
       </c>
       <c r="O58" t="n">
-        <v>302.5786138613861</v>
+        <v>231.028775510204</v>
       </c>
       <c r="P58" t="n">
-        <v>226.9339603960396</v>
+        <v>231.028775510204</v>
       </c>
       <c r="Q58" t="n">
-        <v>151.2893069306931</v>
+        <v>154.0191836734693</v>
       </c>
       <c r="R58" t="n">
-        <v>151.2893069306931</v>
+        <v>154.0191836734693</v>
       </c>
       <c r="S58" t="n">
-        <v>151.2893069306931</v>
+        <v>154.0191836734693</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2102</v>
+        <v>2302</v>
       </c>
       <c r="B59" t="n">
-        <v>1790.15</v>
+        <v>1026.38</v>
       </c>
       <c r="C59" t="n">
-        <v>8055.669999999998</v>
+        <v>4303.75</v>
       </c>
       <c r="D59" t="n">
-        <v>966.6803999999997</v>
+        <v>511.3366336633663</v>
       </c>
       <c r="E59" t="n">
-        <v>805.5669999999998</v>
+        <v>426.1138613861386</v>
       </c>
       <c r="F59" t="n">
-        <v>725.0102999999999</v>
+        <v>383.5024752475247</v>
       </c>
       <c r="G59" t="n">
-        <v>725.0102999999999</v>
+        <v>383.5024752475247</v>
       </c>
       <c r="H59" t="n">
-        <v>725.0102999999999</v>
+        <v>383.5024752475247</v>
       </c>
       <c r="I59" t="n">
-        <v>563.8969</v>
+        <v>340.8910891089109</v>
       </c>
       <c r="J59" t="n">
-        <v>483.3401999999999</v>
+        <v>298.2797029702971</v>
       </c>
       <c r="K59" t="n">
-        <v>402.7834999999999</v>
+        <v>213.0569306930693</v>
       </c>
       <c r="L59" t="n">
-        <v>402.7834999999999</v>
+        <v>170.4455445544554</v>
       </c>
       <c r="M59" t="n">
-        <v>886.1236999999998</v>
+        <v>468.7252475247525</v>
       </c>
       <c r="N59" t="n">
-        <v>322.2268</v>
+        <v>170.4455445544554</v>
       </c>
       <c r="O59" t="n">
-        <v>322.2268</v>
+        <v>170.4455445544554</v>
       </c>
       <c r="P59" t="n">
-        <v>241.6700999999999</v>
+        <v>127.8341584158416</v>
       </c>
       <c r="Q59" t="n">
-        <v>161.1134</v>
+        <v>85.22277227722772</v>
       </c>
       <c r="R59" t="n">
-        <v>161.1134</v>
+        <v>85.22277227722772</v>
       </c>
       <c r="S59" t="n">
-        <v>161.1134</v>
+        <v>85.22277227722772</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2103</v>
+        <v>2301</v>
       </c>
       <c r="B60" t="n">
-        <v>1328.09</v>
+        <v>1825.58</v>
       </c>
       <c r="C60" t="n">
-        <v>5925.769999999999</v>
+        <v>7640.08</v>
       </c>
       <c r="D60" t="n">
-        <v>711.0923999999999</v>
+        <v>907.7322772277228</v>
       </c>
       <c r="E60" t="n">
-        <v>592.5769999999999</v>
+        <v>756.4435643564357</v>
       </c>
       <c r="F60" t="n">
-        <v>533.3192999999999</v>
+        <v>680.799207920792</v>
       </c>
       <c r="G60" t="n">
-        <v>533.3192999999999</v>
+        <v>680.799207920792</v>
       </c>
       <c r="H60" t="n">
-        <v>533.3192999999999</v>
+        <v>680.799207920792</v>
       </c>
       <c r="I60" t="n">
-        <v>414.8039</v>
+        <v>605.1548514851485</v>
       </c>
       <c r="J60" t="n">
-        <v>355.5461999999999</v>
+        <v>529.510495049505</v>
       </c>
       <c r="K60" t="n">
-        <v>296.2884999999999</v>
+        <v>378.2217821782178</v>
       </c>
       <c r="L60" t="n">
-        <v>296.2884999999999</v>
+        <v>302.5774257425742</v>
       </c>
       <c r="M60" t="n">
-        <v>651.8346999999999</v>
+        <v>832.0879207920792</v>
       </c>
       <c r="N60" t="n">
-        <v>237.0308</v>
+        <v>302.5774257425742</v>
       </c>
       <c r="O60" t="n">
-        <v>237.0308</v>
+        <v>302.5774257425742</v>
       </c>
       <c r="P60" t="n">
-        <v>177.7731</v>
+        <v>226.9330693069307</v>
       </c>
       <c r="Q60" t="n">
-        <v>118.5154</v>
+        <v>151.2887128712871</v>
       </c>
       <c r="R60" t="n">
-        <v>118.5154</v>
+        <v>151.2887128712871</v>
       </c>
       <c r="S60" t="n">
-        <v>118.5154</v>
+        <v>151.2887128712871</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1204</v>
+        <v>2102</v>
       </c>
       <c r="B61" t="n">
-        <v>1490.18</v>
+        <v>1790.12</v>
       </c>
       <c r="C61" t="n">
-        <v>6151.51</v>
+        <v>8055.549999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>723.7070588235295</v>
+        <v>966.6659999999997</v>
       </c>
       <c r="E61" t="n">
-        <v>603.0892156862745</v>
+        <v>805.5549999999998</v>
       </c>
       <c r="F61" t="n">
-        <v>542.780294117647</v>
+        <v>724.9994999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>542.780294117647</v>
+        <v>724.9994999999999</v>
       </c>
       <c r="H61" t="n">
-        <v>542.780294117647</v>
+        <v>724.9994999999999</v>
       </c>
       <c r="I61" t="n">
-        <v>482.4713725490196</v>
+        <v>563.8884999999999</v>
       </c>
       <c r="J61" t="n">
-        <v>361.8535294117647</v>
+        <v>483.3329999999999</v>
       </c>
       <c r="K61" t="n">
-        <v>301.5446078431373</v>
+        <v>402.7774999999999</v>
       </c>
       <c r="L61" t="n">
-        <v>241.2356862745098</v>
+        <v>402.7774999999999</v>
       </c>
       <c r="M61" t="n">
-        <v>663.3981372549021</v>
+        <v>886.1104999999998</v>
       </c>
       <c r="N61" t="n">
-        <v>301.5446078431373</v>
+        <v>322.222</v>
       </c>
       <c r="O61" t="n">
-        <v>241.2356862745098</v>
+        <v>322.222</v>
       </c>
       <c r="P61" t="n">
-        <v>180.9267647058824</v>
+        <v>241.6664999999999</v>
       </c>
       <c r="Q61" t="n">
-        <v>180.9267647058824</v>
+        <v>161.111</v>
       </c>
       <c r="R61" t="n">
-        <v>120.6178431372549</v>
+        <v>161.111</v>
       </c>
       <c r="S61" t="n">
-        <v>120.6178431372549</v>
+        <v>161.111</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1205</v>
+        <v>2103</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1328.05</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>5925.629999999998</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>711.0755999999998</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>592.5629999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>533.3066999999999</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>533.3066999999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>533.3066999999999</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>414.7941</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>355.5377999999999</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>296.2814999999999</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>296.2814999999999</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>651.8192999999999</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>237.0252</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>237.0252</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>177.7688999999999</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>118.5126</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>118.5126</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>118.5126</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6501</v>
+        <v>1204</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1490.14</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>6151.33</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>723.6858823529411</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>603.0715686274509</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>542.7644117647059</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>542.7644117647059</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>542.7644117647059</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>482.4572549019608</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>361.8429411764706</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>301.5357843137255</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>241.2286274509804</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>663.3787254901961</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>301.5357843137255</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>241.2286274509804</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>180.9214705882353</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>180.9214705882353</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>120.6143137254902</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>120.6143137254902</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6502</v>
-      </c>
-      <c r="B64" t="n">
-        <v>2243.58</v>
-      </c>
+        <v>1205</v>
+      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>10096.12</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1121.791111111111</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1019.810101010101</v>
-      </c>
-      <c r="F64" t="n">
-        <v>917.8290909090906</v>
-      </c>
-      <c r="G64" t="n">
-        <v>815.8480808080807</v>
-      </c>
-      <c r="H64" t="n">
-        <v>815.8480808080807</v>
-      </c>
-      <c r="I64" t="n">
-        <v>815.8480808080807</v>
-      </c>
-      <c r="J64" t="n">
-        <v>713.8670707070706</v>
-      </c>
-      <c r="K64" t="n">
-        <v>509.9050505050504</v>
-      </c>
-      <c r="L64" t="n">
-        <v>407.9240404040403</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1121.791111111111</v>
-      </c>
-      <c r="N64" t="n">
-        <v>407.9240404040403</v>
-      </c>
-      <c r="O64" t="n">
-        <v>407.9240404040403</v>
-      </c>
-      <c r="P64" t="n">
-        <v>305.9430303030302</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>305.9430303030302</v>
-      </c>
-      <c r="R64" t="n">
-        <v>203.9620202020202</v>
-      </c>
-      <c r="S64" t="n">
-        <v>203.9620202020202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6802</v>
-      </c>
-      <c r="B65" t="n">
-        <v>6014.9</v>
-      </c>
+        <v>6501</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>31541.27</v>
-      </c>
-      <c r="D65" t="n">
-        <v>3784.952399999999</v>
-      </c>
-      <c r="E65" t="n">
-        <v>3154.126999999999</v>
-      </c>
-      <c r="F65" t="n">
-        <v>3154.126999999999</v>
-      </c>
-      <c r="G65" t="n">
-        <v>3154.126999999999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2838.7143</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2207.8889</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1892.4762</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1577.0635</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1261.6508</v>
-      </c>
-      <c r="M65" t="n">
-        <v>3469.539699999999</v>
-      </c>
-      <c r="N65" t="n">
-        <v>1261.6508</v>
-      </c>
-      <c r="O65" t="n">
-        <v>946.2380999999998</v>
-      </c>
-      <c r="P65" t="n">
-        <v>946.2380999999998</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>630.8253999999999</v>
-      </c>
-      <c r="R65" t="n">
-        <v>630.8253999999999</v>
-      </c>
-      <c r="S65" t="n">
-        <v>630.8253999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3307</v>
+        <v>6502</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>2243.56</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
+        <v>10096.01</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1121.778888888889</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1019.79898989899</v>
+      </c>
+      <c r="F66" t="n">
+        <v>917.8190909090905</v>
+      </c>
+      <c r="G66" t="n">
+        <v>815.8391919191918</v>
+      </c>
+      <c r="H66" t="n">
+        <v>815.8391919191918</v>
+      </c>
+      <c r="I66" t="n">
+        <v>815.8391919191918</v>
+      </c>
+      <c r="J66" t="n">
+        <v>713.8592929292928</v>
+      </c>
+      <c r="K66" t="n">
+        <v>509.8994949494948</v>
+      </c>
+      <c r="L66" t="n">
+        <v>407.9195959595959</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1121.778888888889</v>
+      </c>
+      <c r="N66" t="n">
+        <v>407.9195959595959</v>
+      </c>
+      <c r="O66" t="n">
+        <v>407.9195959595959</v>
+      </c>
+      <c r="P66" t="n">
+        <v>305.9396969696969</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>305.9396969696969</v>
+      </c>
+      <c r="R66" t="n">
+        <v>203.9597979797979</v>
+      </c>
+      <c r="S66" t="n">
+        <v>203.9597979797979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2502</v>
+        <v>6802</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>6014.78</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>31540.71999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>3784.886399999999</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>3154.071999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>3154.071999999999</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>3154.071999999999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2838.6648</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>2207.8504</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1892.443199999999</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1577.036</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1261.6288</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>3469.479199999999</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1261.6288</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>946.2215999999997</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>946.2215999999997</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>630.8144</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>630.8144</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>630.8144</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6705</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0</v>
-      </c>
+        <v>3307</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
         <v>0</v>
       </c>
@@ -4293,1359 +4077,1223 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6803</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0</v>
-      </c>
+        <v>2502</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
         <v>0</v>
       </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0</v>
-      </c>
-      <c r="S69" t="n">
-        <v>0</v>
-      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1304</v>
-      </c>
-      <c r="B70" t="n">
-        <v>674.62</v>
-      </c>
+        <v>6705</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>3035.799999999999</v>
-      </c>
-      <c r="D70" t="n">
-        <v>340.7530612244897</v>
-      </c>
-      <c r="E70" t="n">
-        <v>278.7979591836734</v>
-      </c>
-      <c r="F70" t="n">
-        <v>247.8204081632653</v>
-      </c>
-      <c r="G70" t="n">
-        <v>247.8204081632653</v>
-      </c>
-      <c r="H70" t="n">
-        <v>247.8204081632653</v>
-      </c>
-      <c r="I70" t="n">
-        <v>216.8428571428571</v>
-      </c>
-      <c r="J70" t="n">
-        <v>216.8428571428571</v>
-      </c>
-      <c r="K70" t="n">
-        <v>185.8653061224489</v>
-      </c>
-      <c r="L70" t="n">
-        <v>154.8877551020408</v>
-      </c>
-      <c r="M70" t="n">
-        <v>309.7755102040816</v>
-      </c>
-      <c r="N70" t="n">
-        <v>123.9102040816326</v>
-      </c>
-      <c r="O70" t="n">
-        <v>123.9102040816326</v>
-      </c>
-      <c r="P70" t="n">
-        <v>92.93265306122446</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>92.93265306122446</v>
-      </c>
-      <c r="R70" t="n">
-        <v>61.95510204081631</v>
-      </c>
-      <c r="S70" t="n">
-        <v>92.93265306122446</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1306</v>
-      </c>
-      <c r="B71" t="n">
-        <v>599.08</v>
-      </c>
+        <v>6803</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>2695.869999999999</v>
-      </c>
-      <c r="D71" t="n">
-        <v>302.5976530612244</v>
-      </c>
-      <c r="E71" t="n">
-        <v>247.5798979591836</v>
-      </c>
-      <c r="F71" t="n">
-        <v>220.0710204081632</v>
-      </c>
-      <c r="G71" t="n">
-        <v>220.0710204081632</v>
-      </c>
-      <c r="H71" t="n">
-        <v>220.0710204081632</v>
-      </c>
-      <c r="I71" t="n">
-        <v>192.5621428571428</v>
-      </c>
-      <c r="J71" t="n">
-        <v>192.5621428571428</v>
-      </c>
-      <c r="K71" t="n">
-        <v>165.0532653061224</v>
-      </c>
-      <c r="L71" t="n">
-        <v>137.544387755102</v>
-      </c>
-      <c r="M71" t="n">
-        <v>275.088775510204</v>
-      </c>
-      <c r="N71" t="n">
-        <v>110.0355102040816</v>
-      </c>
-      <c r="O71" t="n">
-        <v>110.0355102040816</v>
-      </c>
-      <c r="P71" t="n">
-        <v>82.52663265306118</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>82.52663265306118</v>
-      </c>
-      <c r="R71" t="n">
-        <v>55.0177551020408</v>
-      </c>
-      <c r="S71" t="n">
-        <v>82.52663265306118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2402</v>
+        <v>1304</v>
       </c>
       <c r="B72" t="n">
-        <v>1326.91</v>
+        <v>674.6</v>
       </c>
       <c r="C72" t="n">
-        <v>6859.289999999999</v>
+        <v>3035.679999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>900.7148484848484</v>
+        <v>340.7395918367346</v>
       </c>
       <c r="E72" t="n">
-        <v>762.1433333333333</v>
+        <v>278.7869387755101</v>
       </c>
       <c r="F72" t="n">
-        <v>623.5718181818181</v>
+        <v>247.8106122448979</v>
       </c>
       <c r="G72" t="n">
-        <v>623.5718181818181</v>
+        <v>247.8106122448979</v>
       </c>
       <c r="H72" t="n">
-        <v>623.5718181818181</v>
+        <v>247.8106122448979</v>
       </c>
       <c r="I72" t="n">
-        <v>554.2860606060606</v>
+        <v>216.8342857142856</v>
       </c>
       <c r="J72" t="n">
-        <v>415.7145454545454</v>
+        <v>216.8342857142856</v>
       </c>
       <c r="K72" t="n">
-        <v>346.4287878787879</v>
+        <v>185.8579591836734</v>
       </c>
       <c r="L72" t="n">
-        <v>277.1430303030303</v>
+        <v>154.8816326530612</v>
       </c>
       <c r="M72" t="n">
-        <v>831.4290909090909</v>
+        <v>309.7632653061224</v>
       </c>
       <c r="N72" t="n">
-        <v>277.1430303030303</v>
+        <v>123.9053061224489</v>
       </c>
       <c r="O72" t="n">
-        <v>207.8572727272727</v>
+        <v>123.9053061224489</v>
       </c>
       <c r="P72" t="n">
-        <v>138.5715151515151</v>
+        <v>92.92897959183669</v>
       </c>
       <c r="Q72" t="n">
-        <v>138.5715151515151</v>
+        <v>92.92897959183669</v>
       </c>
       <c r="R72" t="n">
-        <v>69.28575757575757</v>
+        <v>61.95265306122447</v>
       </c>
       <c r="S72" t="n">
-        <v>69.28575757575757</v>
+        <v>92.92897959183669</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6611</v>
+        <v>1306</v>
       </c>
       <c r="B73" t="n">
-        <v>15.36</v>
+        <v>599.05</v>
       </c>
       <c r="C73" t="n">
-        <v>69.12999999999998</v>
+        <v>2695.739999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>7.455196078431371</v>
+        <v>302.5830612244897</v>
       </c>
       <c r="E73" t="n">
-        <v>6.777450980392155</v>
+        <v>247.5679591836733</v>
       </c>
       <c r="F73" t="n">
-        <v>6.099705882352939</v>
+        <v>220.0604081632652</v>
       </c>
       <c r="G73" t="n">
-        <v>5.421960784313725</v>
+        <v>220.0604081632652</v>
       </c>
       <c r="H73" t="n">
-        <v>5.421960784313725</v>
+        <v>220.0604081632652</v>
       </c>
       <c r="I73" t="n">
-        <v>5.421960784313725</v>
+        <v>192.5528571428571</v>
       </c>
       <c r="J73" t="n">
-        <v>4.744215686274509</v>
+        <v>192.5528571428571</v>
       </c>
       <c r="K73" t="n">
-        <v>3.388725490196077</v>
+        <v>165.0453061224489</v>
       </c>
       <c r="L73" t="n">
-        <v>3.388725490196077</v>
+        <v>137.5377551020408</v>
       </c>
       <c r="M73" t="n">
-        <v>7.455196078431371</v>
+        <v>275.0755102040815</v>
       </c>
       <c r="N73" t="n">
-        <v>3.388725490196077</v>
+        <v>110.0302040816326</v>
       </c>
       <c r="O73" t="n">
-        <v>2.710980392156862</v>
+        <v>110.0302040816326</v>
       </c>
       <c r="P73" t="n">
-        <v>2.033235294117647</v>
+        <v>82.52265306122446</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.033235294117647</v>
+        <v>82.52265306122446</v>
       </c>
       <c r="R73" t="n">
-        <v>1.355490196078431</v>
+        <v>55.01510204081631</v>
       </c>
       <c r="S73" t="n">
-        <v>2.033235294117647</v>
+        <v>82.52265306122446</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6607</v>
+        <v>2402</v>
       </c>
       <c r="B74" t="n">
-        <v>1088.95</v>
+        <v>1326.41</v>
       </c>
       <c r="C74" t="n">
-        <v>4563.879999999999</v>
+        <v>6857.069999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>492.1831372549019</v>
+        <v>900.4233333333332</v>
       </c>
       <c r="E74" t="n">
-        <v>447.4392156862745</v>
+        <v>761.8966666666666</v>
       </c>
       <c r="F74" t="n">
-        <v>402.695294117647</v>
+        <v>623.3699999999999</v>
       </c>
       <c r="G74" t="n">
-        <v>357.9513725490195</v>
+        <v>623.3699999999999</v>
       </c>
       <c r="H74" t="n">
-        <v>357.9513725490195</v>
+        <v>623.3699999999999</v>
       </c>
       <c r="I74" t="n">
-        <v>357.9513725490195</v>
+        <v>554.1066666666666</v>
       </c>
       <c r="J74" t="n">
-        <v>313.2074509803921</v>
+        <v>415.5799999999999</v>
       </c>
       <c r="K74" t="n">
-        <v>223.7196078431372</v>
+        <v>346.3166666666667</v>
       </c>
       <c r="L74" t="n">
-        <v>223.7196078431372</v>
+        <v>277.0533333333333</v>
       </c>
       <c r="M74" t="n">
-        <v>492.1831372549019</v>
+        <v>831.1599999999999</v>
       </c>
       <c r="N74" t="n">
-        <v>223.7196078431372</v>
+        <v>277.0533333333333</v>
       </c>
       <c r="O74" t="n">
-        <v>178.9756862745098</v>
+        <v>207.79</v>
       </c>
       <c r="P74" t="n">
-        <v>134.2317647058823</v>
+        <v>138.5266666666666</v>
       </c>
       <c r="Q74" t="n">
-        <v>134.2317647058823</v>
+        <v>138.5266666666666</v>
       </c>
       <c r="R74" t="n">
-        <v>89.48784313725488</v>
+        <v>69.26333333333332</v>
       </c>
       <c r="S74" t="n">
-        <v>134.2317647058823</v>
+        <v>69.26333333333332</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3606</v>
-      </c>
-      <c r="B75" t="n">
-        <v>675.04</v>
-      </c>
+        <v>6611</v>
+      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>2626.599999999999</v>
-      </c>
-      <c r="D75" t="n">
-        <v>286.0653465346534</v>
-      </c>
-      <c r="E75" t="n">
-        <v>234.0534653465346</v>
-      </c>
-      <c r="F75" t="n">
-        <v>208.0475247524752</v>
-      </c>
-      <c r="G75" t="n">
-        <v>208.0475247524752</v>
-      </c>
-      <c r="H75" t="n">
-        <v>234.0534653465346</v>
-      </c>
-      <c r="I75" t="n">
-        <v>208.0475247524752</v>
-      </c>
-      <c r="J75" t="n">
-        <v>182.0415841584158</v>
-      </c>
-      <c r="K75" t="n">
-        <v>130.029702970297</v>
-      </c>
-      <c r="L75" t="n">
-        <v>104.0237623762376</v>
-      </c>
-      <c r="M75" t="n">
-        <v>260.059405940594</v>
-      </c>
-      <c r="N75" t="n">
-        <v>130.029702970297</v>
-      </c>
-      <c r="O75" t="n">
-        <v>130.029702970297</v>
-      </c>
-      <c r="P75" t="n">
-        <v>104.0237623762376</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>78.01782178217819</v>
-      </c>
-      <c r="R75" t="n">
-        <v>52.0118811881188</v>
-      </c>
-      <c r="S75" t="n">
-        <v>78.01782178217819</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3604</v>
+        <v>6607</v>
       </c>
       <c r="B76" t="n">
-        <v>719.0599999999999</v>
+        <v>1088.94</v>
       </c>
       <c r="C76" t="n">
-        <v>2797.32</v>
+        <v>4563.849999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>304.6586138613861</v>
+        <v>492.1799019607843</v>
       </c>
       <c r="E76" t="n">
-        <v>249.2661386138614</v>
+        <v>447.4362745098039</v>
       </c>
       <c r="F76" t="n">
-        <v>221.569900990099</v>
+        <v>402.6926470588235</v>
       </c>
       <c r="G76" t="n">
-        <v>221.569900990099</v>
+        <v>357.9490196078431</v>
       </c>
       <c r="H76" t="n">
-        <v>249.2661386138614</v>
+        <v>357.9490196078431</v>
       </c>
       <c r="I76" t="n">
-        <v>221.569900990099</v>
+        <v>357.9490196078431</v>
       </c>
       <c r="J76" t="n">
-        <v>193.8736633663366</v>
+        <v>313.2053921568627</v>
       </c>
       <c r="K76" t="n">
-        <v>138.4811881188118</v>
+        <v>223.7181372549019</v>
       </c>
       <c r="L76" t="n">
-        <v>110.7849504950495</v>
+        <v>223.7181372549019</v>
       </c>
       <c r="M76" t="n">
-        <v>276.9623762376237</v>
+        <v>492.1799019607843</v>
       </c>
       <c r="N76" t="n">
-        <v>138.4811881188118</v>
+        <v>223.7181372549019</v>
       </c>
       <c r="O76" t="n">
-        <v>138.4811881188118</v>
+        <v>178.9745098039215</v>
       </c>
       <c r="P76" t="n">
-        <v>110.7849504950495</v>
+        <v>134.2308823529412</v>
       </c>
       <c r="Q76" t="n">
-        <v>83.08871287128711</v>
+        <v>134.2308823529412</v>
       </c>
       <c r="R76" t="n">
-        <v>55.39247524752475</v>
+        <v>89.48725490196077</v>
       </c>
       <c r="S76" t="n">
-        <v>83.08871287128711</v>
+        <v>134.2308823529412</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3609</v>
+        <v>3606</v>
       </c>
       <c r="B77" t="n">
-        <v>308.54</v>
+        <v>674.98</v>
       </c>
       <c r="C77" t="n">
-        <v>1202.74</v>
+        <v>2626.329999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>130.9914851485148</v>
+        <v>286.0359405940593</v>
       </c>
       <c r="E77" t="n">
-        <v>107.1748514851485</v>
+        <v>234.029405940594</v>
       </c>
       <c r="F77" t="n">
-        <v>95.26653465346533</v>
+        <v>208.0261386138613</v>
       </c>
       <c r="G77" t="n">
-        <v>95.26653465346533</v>
+        <v>208.0261386138613</v>
       </c>
       <c r="H77" t="n">
-        <v>107.1748514851485</v>
+        <v>234.029405940594</v>
       </c>
       <c r="I77" t="n">
-        <v>95.26653465346533</v>
+        <v>208.0261386138613</v>
       </c>
       <c r="J77" t="n">
-        <v>83.35821782178218</v>
+        <v>182.0228712871287</v>
       </c>
       <c r="K77" t="n">
-        <v>59.54158415841583</v>
+        <v>130.0163366336633</v>
       </c>
       <c r="L77" t="n">
-        <v>47.63326732673266</v>
+        <v>104.0130693069307</v>
       </c>
       <c r="M77" t="n">
-        <v>119.0831683168317</v>
+        <v>260.0326732673267</v>
       </c>
       <c r="N77" t="n">
-        <v>59.54158415841583</v>
+        <v>130.0163366336633</v>
       </c>
       <c r="O77" t="n">
-        <v>59.54158415841583</v>
+        <v>130.0163366336633</v>
       </c>
       <c r="P77" t="n">
-        <v>47.63326732673266</v>
+        <v>104.0130693069307</v>
       </c>
       <c r="Q77" t="n">
-        <v>35.7249504950495</v>
+        <v>78.00980198019799</v>
       </c>
       <c r="R77" t="n">
-        <v>23.81663366336633</v>
+        <v>52.00653465346534</v>
       </c>
       <c r="S77" t="n">
-        <v>35.7249504950495</v>
+        <v>78.00980198019799</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2403</v>
+        <v>3604</v>
       </c>
       <c r="B78" t="n">
-        <v>1687.92</v>
+        <v>719</v>
       </c>
       <c r="C78" t="n">
-        <v>8812.669999999998</v>
+        <v>2797.059999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>1157.219292929293</v>
+        <v>304.6302970297029</v>
       </c>
       <c r="E78" t="n">
-        <v>979.1855555555555</v>
+        <v>249.2429702970296</v>
       </c>
       <c r="F78" t="n">
-        <v>801.151818181818</v>
+        <v>221.549306930693</v>
       </c>
       <c r="G78" t="n">
-        <v>801.151818181818</v>
+        <v>221.549306930693</v>
       </c>
       <c r="H78" t="n">
-        <v>801.151818181818</v>
+        <v>249.2429702970296</v>
       </c>
       <c r="I78" t="n">
-        <v>712.1349494949494</v>
+        <v>221.549306930693</v>
       </c>
       <c r="J78" t="n">
-        <v>534.101212121212</v>
+        <v>193.8556435643564</v>
       </c>
       <c r="K78" t="n">
-        <v>445.0843434343435</v>
+        <v>138.4683168316831</v>
       </c>
       <c r="L78" t="n">
-        <v>356.0674747474747</v>
+        <v>110.7746534653465</v>
       </c>
       <c r="M78" t="n">
-        <v>1068.202424242424</v>
+        <v>276.9366336633663</v>
       </c>
       <c r="N78" t="n">
-        <v>356.0674747474747</v>
+        <v>138.4683168316831</v>
       </c>
       <c r="O78" t="n">
-        <v>267.050606060606</v>
+        <v>138.4683168316831</v>
       </c>
       <c r="P78" t="n">
-        <v>178.0337373737374</v>
+        <v>110.7746534653465</v>
       </c>
       <c r="Q78" t="n">
-        <v>178.0337373737374</v>
+        <v>83.08099009900988</v>
       </c>
       <c r="R78" t="n">
-        <v>89.01686868686868</v>
+        <v>55.38732673267326</v>
       </c>
       <c r="S78" t="n">
-        <v>89.01686868686868</v>
+        <v>83.08099009900988</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3601</v>
+        <v>3609</v>
       </c>
       <c r="B79" t="n">
-        <v>170.17</v>
+        <v>308.5</v>
       </c>
       <c r="C79" t="n">
-        <v>660.7099999999998</v>
+        <v>1202.53</v>
       </c>
       <c r="D79" t="n">
-        <v>71.95851485148513</v>
+        <v>130.9686138613861</v>
       </c>
       <c r="E79" t="n">
-        <v>58.87514851485147</v>
+        <v>107.1561386138614</v>
       </c>
       <c r="F79" t="n">
-        <v>52.33346534653464</v>
+        <v>95.24990099009899</v>
       </c>
       <c r="G79" t="n">
-        <v>52.33346534653464</v>
+        <v>95.24990099009899</v>
       </c>
       <c r="H79" t="n">
-        <v>58.87514851485147</v>
+        <v>107.1561386138614</v>
       </c>
       <c r="I79" t="n">
-        <v>52.33346534653464</v>
+        <v>95.24990099009899</v>
       </c>
       <c r="J79" t="n">
-        <v>45.79178217821782</v>
+        <v>83.34366336633663</v>
       </c>
       <c r="K79" t="n">
-        <v>32.70841584158416</v>
+        <v>59.53118811881187</v>
       </c>
       <c r="L79" t="n">
-        <v>26.16673267326732</v>
+        <v>47.6249504950495</v>
       </c>
       <c r="M79" t="n">
-        <v>65.41683168316831</v>
+        <v>119.0623762376237</v>
       </c>
       <c r="N79" t="n">
-        <v>32.70841584158416</v>
+        <v>59.53118811881187</v>
       </c>
       <c r="O79" t="n">
-        <v>32.70841584158416</v>
+        <v>59.53118811881187</v>
       </c>
       <c r="P79" t="n">
-        <v>26.16673267326732</v>
+        <v>47.6249504950495</v>
       </c>
       <c r="Q79" t="n">
-        <v>19.62504950495049</v>
+        <v>35.71871287128712</v>
       </c>
       <c r="R79" t="n">
-        <v>13.08336633663366</v>
+        <v>23.81247524752475</v>
       </c>
       <c r="S79" t="n">
-        <v>19.62504950495049</v>
+        <v>35.71871287128712</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3602</v>
+        <v>2403</v>
       </c>
       <c r="B80" t="n">
-        <v>955.6799999999999</v>
+        <v>1687.88</v>
       </c>
       <c r="C80" t="n">
-        <v>3713.049999999999</v>
+        <v>8812.5</v>
       </c>
       <c r="D80" t="n">
-        <v>404.3915841584158</v>
+        <v>1157.19696969697</v>
       </c>
       <c r="E80" t="n">
-        <v>330.8658415841584</v>
+        <v>979.1666666666666</v>
       </c>
       <c r="F80" t="n">
-        <v>294.1029702970297</v>
+        <v>801.1363636363635</v>
       </c>
       <c r="G80" t="n">
-        <v>294.1029702970297</v>
+        <v>801.1363636363635</v>
       </c>
       <c r="H80" t="n">
-        <v>330.8658415841584</v>
+        <v>801.1363636363635</v>
       </c>
       <c r="I80" t="n">
-        <v>294.1029702970297</v>
+        <v>712.121212121212</v>
       </c>
       <c r="J80" t="n">
-        <v>257.340099009901</v>
+        <v>534.090909090909</v>
       </c>
       <c r="K80" t="n">
-        <v>183.8143564356435</v>
+        <v>445.0757575757576</v>
       </c>
       <c r="L80" t="n">
-        <v>147.0514851485148</v>
+        <v>356.060606060606</v>
       </c>
       <c r="M80" t="n">
-        <v>367.6287128712871</v>
+        <v>1068.181818181818</v>
       </c>
       <c r="N80" t="n">
-        <v>183.8143564356435</v>
+        <v>356.060606060606</v>
       </c>
       <c r="O80" t="n">
-        <v>183.8143564356435</v>
+        <v>267.0454545454545</v>
       </c>
       <c r="P80" t="n">
-        <v>147.0514851485148</v>
+        <v>178.030303030303</v>
       </c>
       <c r="Q80" t="n">
-        <v>110.2886138613861</v>
+        <v>178.030303030303</v>
       </c>
       <c r="R80" t="n">
-        <v>73.52574257425742</v>
+        <v>89.0151515151515</v>
       </c>
       <c r="S80" t="n">
-        <v>110.2886138613861</v>
+        <v>89.0151515151515</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3610</v>
+        <v>3601</v>
       </c>
       <c r="B81" t="n">
-        <v>526.09</v>
+        <v>170.16</v>
       </c>
       <c r="C81" t="n">
-        <v>2049.02</v>
+        <v>660.6999999999998</v>
       </c>
       <c r="D81" t="n">
-        <v>223.1605940594059</v>
+        <v>71.95742574257424</v>
       </c>
       <c r="E81" t="n">
-        <v>182.5859405940594</v>
+        <v>58.87425742574256</v>
       </c>
       <c r="F81" t="n">
-        <v>162.2986138613861</v>
+        <v>52.33267326732673</v>
       </c>
       <c r="G81" t="n">
-        <v>162.2986138613861</v>
+        <v>52.33267326732673</v>
       </c>
       <c r="H81" t="n">
-        <v>182.5859405940594</v>
+        <v>58.87425742574256</v>
       </c>
       <c r="I81" t="n">
-        <v>162.2986138613861</v>
+        <v>52.33267326732673</v>
       </c>
       <c r="J81" t="n">
-        <v>142.0112871287129</v>
+        <v>45.79108910891089</v>
       </c>
       <c r="K81" t="n">
-        <v>101.4366336633663</v>
+        <v>32.7079207920792</v>
       </c>
       <c r="L81" t="n">
-        <v>81.14930693069306</v>
+        <v>26.16633663366336</v>
       </c>
       <c r="M81" t="n">
-        <v>202.8732673267326</v>
+        <v>65.4158415841584</v>
       </c>
       <c r="N81" t="n">
-        <v>101.4366336633663</v>
+        <v>32.7079207920792</v>
       </c>
       <c r="O81" t="n">
-        <v>101.4366336633663</v>
+        <v>32.7079207920792</v>
       </c>
       <c r="P81" t="n">
-        <v>81.14930693069306</v>
+        <v>26.16633663366336</v>
       </c>
       <c r="Q81" t="n">
-        <v>60.86198019801979</v>
+        <v>19.62475247524752</v>
       </c>
       <c r="R81" t="n">
-        <v>40.57465346534653</v>
+        <v>13.08316831683168</v>
       </c>
       <c r="S81" t="n">
-        <v>60.86198019801979</v>
+        <v>19.62475247524752</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="B82" t="n">
-        <v>506.62</v>
+        <v>955.64</v>
       </c>
       <c r="C82" t="n">
-        <v>1973.54</v>
+        <v>3712.859999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>214.9399999999999</v>
+        <v>404.3708910891088</v>
       </c>
       <c r="E82" t="n">
-        <v>175.86</v>
+        <v>330.8489108910891</v>
       </c>
       <c r="F82" t="n">
-        <v>156.32</v>
+        <v>294.0879207920792</v>
       </c>
       <c r="G82" t="n">
-        <v>156.32</v>
+        <v>294.0879207920792</v>
       </c>
       <c r="H82" t="n">
-        <v>175.86</v>
+        <v>330.8489108910891</v>
       </c>
       <c r="I82" t="n">
-        <v>156.32</v>
+        <v>294.0879207920792</v>
       </c>
       <c r="J82" t="n">
-        <v>136.78</v>
+        <v>257.3269306930693</v>
       </c>
       <c r="K82" t="n">
-        <v>97.69999999999997</v>
+        <v>183.8049504950495</v>
       </c>
       <c r="L82" t="n">
-        <v>78.15999999999998</v>
+        <v>147.0439603960396</v>
       </c>
       <c r="M82" t="n">
-        <v>195.3999999999999</v>
+        <v>367.6099009900989</v>
       </c>
       <c r="N82" t="n">
-        <v>97.69999999999997</v>
+        <v>183.8049504950495</v>
       </c>
       <c r="O82" t="n">
-        <v>97.69999999999997</v>
+        <v>183.8049504950495</v>
       </c>
       <c r="P82" t="n">
-        <v>78.15999999999998</v>
+        <v>147.0439603960396</v>
       </c>
       <c r="Q82" t="n">
-        <v>58.61999999999998</v>
+        <v>110.2829702970297</v>
       </c>
       <c r="R82" t="n">
-        <v>39.07999999999999</v>
+        <v>73.52198019801979</v>
       </c>
       <c r="S82" t="n">
-        <v>58.61999999999998</v>
+        <v>110.2829702970297</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2501</v>
+        <v>3610</v>
       </c>
       <c r="B83" t="n">
-        <v>2707.11</v>
+        <v>526.02</v>
       </c>
       <c r="C83" t="n">
-        <v>12001.99</v>
+        <v>2048.739999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>1560.2587</v>
+        <v>223.1300990099009</v>
       </c>
       <c r="E83" t="n">
-        <v>1320.2189</v>
+        <v>182.5609900990098</v>
       </c>
       <c r="F83" t="n">
-        <v>1200.199</v>
+        <v>162.2764356435643</v>
       </c>
       <c r="G83" t="n">
-        <v>1080.1791</v>
+        <v>162.2764356435643</v>
       </c>
       <c r="H83" t="n">
-        <v>1080.1791</v>
+        <v>182.5609900990098</v>
       </c>
       <c r="I83" t="n">
-        <v>960.1592000000001</v>
+        <v>162.2764356435643</v>
       </c>
       <c r="J83" t="n">
-        <v>720.1193999999999</v>
+        <v>141.9918811881188</v>
       </c>
       <c r="K83" t="n">
-        <v>600.0995</v>
+        <v>101.4227722772277</v>
       </c>
       <c r="L83" t="n">
-        <v>480.0796</v>
+        <v>81.13821782178216</v>
       </c>
       <c r="M83" t="n">
-        <v>1440.2388</v>
+        <v>202.8455445544554</v>
       </c>
       <c r="N83" t="n">
-        <v>480.0796</v>
+        <v>101.4227722772277</v>
       </c>
       <c r="O83" t="n">
-        <v>360.0597</v>
+        <v>101.4227722772277</v>
       </c>
       <c r="P83" t="n">
-        <v>240.0398</v>
+        <v>81.13821782178216</v>
       </c>
       <c r="Q83" t="n">
-        <v>240.0398</v>
+        <v>60.85366336633661</v>
       </c>
       <c r="R83" t="n">
-        <v>120.0199</v>
+        <v>40.56910891089108</v>
       </c>
       <c r="S83" t="n">
-        <v>120.0199</v>
+        <v>60.85366336633661</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2504</v>
+        <v>3603</v>
       </c>
       <c r="B84" t="n">
-        <v>1381.2</v>
+        <v>506.56</v>
       </c>
       <c r="C84" t="n">
-        <v>5667.909999999998</v>
+        <v>1973.25</v>
       </c>
       <c r="D84" t="n">
-        <v>694.0297959183671</v>
+        <v>214.9084158415841</v>
       </c>
       <c r="E84" t="n">
-        <v>578.358163265306</v>
+        <v>175.8341584158416</v>
       </c>
       <c r="F84" t="n">
-        <v>520.5223469387753</v>
+        <v>156.2970297029703</v>
       </c>
       <c r="G84" t="n">
-        <v>462.6865306122448</v>
+        <v>156.2970297029703</v>
       </c>
       <c r="H84" t="n">
-        <v>462.6865306122448</v>
+        <v>175.8341584158416</v>
       </c>
       <c r="I84" t="n">
-        <v>462.6865306122448</v>
+        <v>156.2970297029703</v>
       </c>
       <c r="J84" t="n">
-        <v>404.8507142857142</v>
+        <v>136.759900990099</v>
       </c>
       <c r="K84" t="n">
-        <v>289.179081632653</v>
+        <v>97.68564356435641</v>
       </c>
       <c r="L84" t="n">
-        <v>231.3432653061224</v>
+        <v>78.14851485148513</v>
       </c>
       <c r="M84" t="n">
-        <v>636.1939795918365</v>
+        <v>195.3712871287128</v>
       </c>
       <c r="N84" t="n">
-        <v>231.3432653061224</v>
+        <v>97.68564356435641</v>
       </c>
       <c r="O84" t="n">
-        <v>231.3432653061224</v>
+        <v>97.68564356435641</v>
       </c>
       <c r="P84" t="n">
-        <v>173.5074489795918</v>
+        <v>78.14851485148513</v>
       </c>
       <c r="Q84" t="n">
-        <v>115.6716326530612</v>
+        <v>58.61138613861385</v>
       </c>
       <c r="R84" t="n">
-        <v>57.8358163265306</v>
+        <v>39.07425742574257</v>
       </c>
       <c r="S84" t="n">
-        <v>115.6716326530612</v>
+        <v>58.61138613861385</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>304</v>
+        <v>2501</v>
       </c>
       <c r="B85" t="n">
-        <v>877.72</v>
+        <v>2706.99</v>
       </c>
       <c r="C85" t="n">
-        <v>3980.739999999999</v>
+        <v>12001.44</v>
       </c>
       <c r="D85" t="n">
-        <v>361.8854545454544</v>
+        <v>1560.1872</v>
       </c>
       <c r="E85" t="n">
-        <v>321.6759595959595</v>
+        <v>1320.1584</v>
       </c>
       <c r="F85" t="n">
-        <v>281.4664646464646</v>
+        <v>1200.144</v>
       </c>
       <c r="G85" t="n">
-        <v>281.4664646464646</v>
+        <v>1080.1296</v>
       </c>
       <c r="H85" t="n">
-        <v>281.4664646464646</v>
+        <v>1080.1296</v>
       </c>
       <c r="I85" t="n">
-        <v>281.4664646464646</v>
+        <v>960.1152000000001</v>
       </c>
       <c r="J85" t="n">
-        <v>241.2569696969696</v>
+        <v>720.0864</v>
       </c>
       <c r="K85" t="n">
-        <v>241.2569696969696</v>
+        <v>600.072</v>
       </c>
       <c r="L85" t="n">
-        <v>241.2569696969696</v>
+        <v>480.0576</v>
       </c>
       <c r="M85" t="n">
-        <v>321.6759595959595</v>
+        <v>1440.1728</v>
       </c>
       <c r="N85" t="n">
-        <v>241.2569696969696</v>
+        <v>480.0576</v>
       </c>
       <c r="O85" t="n">
-        <v>201.0474747474747</v>
+        <v>360.0432</v>
       </c>
       <c r="P85" t="n">
-        <v>160.8379797979798</v>
+        <v>240.0288</v>
       </c>
       <c r="Q85" t="n">
-        <v>160.8379797979798</v>
+        <v>240.0288</v>
       </c>
       <c r="R85" t="n">
-        <v>120.6284848484848</v>
+        <v>120.0144</v>
       </c>
       <c r="S85" t="n">
-        <v>241.2569696969696</v>
+        <v>120.0144</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>303</v>
+        <v>2504</v>
       </c>
       <c r="B86" t="n">
-        <v>490.18</v>
+        <v>1381.12</v>
       </c>
       <c r="C86" t="n">
-        <v>2226.82</v>
+        <v>5667.549999999998</v>
       </c>
       <c r="D86" t="n">
-        <v>200.4138</v>
+        <v>693.985714285714</v>
       </c>
       <c r="E86" t="n">
-        <v>178.1456</v>
+        <v>578.3214285714284</v>
       </c>
       <c r="F86" t="n">
-        <v>155.8774</v>
+        <v>520.4892857142855</v>
       </c>
       <c r="G86" t="n">
-        <v>155.8774</v>
+        <v>462.6571428571427</v>
       </c>
       <c r="H86" t="n">
-        <v>155.8774</v>
+        <v>462.6571428571427</v>
       </c>
       <c r="I86" t="n">
-        <v>178.1456</v>
+        <v>462.6571428571427</v>
       </c>
       <c r="J86" t="n">
-        <v>133.6092</v>
+        <v>404.8249999999999</v>
       </c>
       <c r="K86" t="n">
-        <v>155.8774</v>
+        <v>289.1607142857142</v>
       </c>
       <c r="L86" t="n">
-        <v>111.341</v>
+        <v>231.3285714285714</v>
       </c>
       <c r="M86" t="n">
-        <v>200.4138</v>
+        <v>636.1535714285712</v>
       </c>
       <c r="N86" t="n">
-        <v>133.6092</v>
+        <v>231.3285714285714</v>
       </c>
       <c r="O86" t="n">
-        <v>89.07279999999999</v>
+        <v>231.3285714285714</v>
       </c>
       <c r="P86" t="n">
-        <v>89.07279999999999</v>
+        <v>173.4964285714285</v>
       </c>
       <c r="Q86" t="n">
-        <v>89.07279999999999</v>
+        <v>115.6642857142857</v>
       </c>
       <c r="R86" t="n">
-        <v>66.80459999999999</v>
+        <v>57.83214285714284</v>
       </c>
       <c r="S86" t="n">
-        <v>133.6092</v>
+        <v>115.6642857142857</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B87" t="n">
-        <v>5266.97</v>
+        <v>876.86</v>
       </c>
       <c r="C87" t="n">
-        <v>23767.36</v>
+        <v>3945.869999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>2614.4096</v>
+        <v>358.7154545454545</v>
       </c>
       <c r="E87" t="n">
-        <v>2139.0624</v>
+        <v>318.8581818181817</v>
       </c>
       <c r="F87" t="n">
-        <v>1901.3888</v>
+        <v>279.0009090909091</v>
       </c>
       <c r="G87" t="n">
-        <v>1901.3888</v>
+        <v>279.0009090909091</v>
       </c>
       <c r="H87" t="n">
-        <v>1901.3888</v>
+        <v>279.0009090909091</v>
       </c>
       <c r="I87" t="n">
-        <v>1901.3888</v>
+        <v>279.0009090909091</v>
       </c>
       <c r="J87" t="n">
-        <v>1663.7152</v>
+        <v>239.1436363636363</v>
       </c>
       <c r="K87" t="n">
-        <v>1426.0416</v>
+        <v>239.1436363636363</v>
       </c>
       <c r="L87" t="n">
-        <v>1188.368</v>
+        <v>239.1436363636363</v>
       </c>
       <c r="M87" t="n">
-        <v>2376.735999999999</v>
+        <v>318.8581818181817</v>
       </c>
       <c r="N87" t="n">
-        <v>1188.368</v>
+        <v>239.1436363636363</v>
       </c>
       <c r="O87" t="n">
-        <v>950.6943999999999</v>
+        <v>199.2863636363636</v>
       </c>
       <c r="P87" t="n">
-        <v>713.0207999999998</v>
+        <v>159.4290909090909</v>
       </c>
       <c r="Q87" t="n">
-        <v>713.0207999999998</v>
+        <v>159.4290909090909</v>
       </c>
       <c r="R87" t="n">
-        <v>475.3471999999999</v>
+        <v>119.5718181818182</v>
       </c>
       <c r="S87" t="n">
-        <v>713.0207999999998</v>
+        <v>239.1436363636363</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>7651</v>
+        <v>303</v>
       </c>
       <c r="B88" t="n">
-        <v>2463.56</v>
+        <v>489.61</v>
       </c>
       <c r="C88" t="n">
-        <v>10016.88</v>
+        <v>2203.219999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>982.0470588235291</v>
+        <v>198.2898</v>
       </c>
       <c r="E88" t="n">
-        <v>883.8423529411762</v>
+        <v>176.2576</v>
       </c>
       <c r="F88" t="n">
-        <v>785.6376470588233</v>
+        <v>154.2254</v>
       </c>
       <c r="G88" t="n">
-        <v>785.6376470588233</v>
+        <v>154.2254</v>
       </c>
       <c r="H88" t="n">
-        <v>785.6376470588233</v>
+        <v>154.2254</v>
       </c>
       <c r="I88" t="n">
-        <v>785.6376470588233</v>
+        <v>176.2576</v>
       </c>
       <c r="J88" t="n">
-        <v>687.4329411764704</v>
+        <v>132.1932</v>
       </c>
       <c r="K88" t="n">
-        <v>589.2282352941174</v>
+        <v>154.2254</v>
       </c>
       <c r="L88" t="n">
-        <v>491.0235294117646</v>
+        <v>110.161</v>
       </c>
       <c r="M88" t="n">
-        <v>982.0470588235291</v>
+        <v>198.2898</v>
       </c>
       <c r="N88" t="n">
-        <v>491.0235294117646</v>
+        <v>132.1932</v>
       </c>
       <c r="O88" t="n">
-        <v>392.8188235294116</v>
+        <v>88.12879999999998</v>
       </c>
       <c r="P88" t="n">
-        <v>392.8188235294116</v>
+        <v>88.12879999999998</v>
       </c>
       <c r="Q88" t="n">
-        <v>392.8188235294116</v>
+        <v>88.12879999999998</v>
       </c>
       <c r="R88" t="n">
-        <v>294.6141176470587</v>
+        <v>66.09659999999998</v>
       </c>
       <c r="S88" t="n">
-        <v>294.6141176470587</v>
+        <v>132.1932</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>7652</v>
+        <v>301</v>
       </c>
       <c r="B89" t="n">
-        <v>1508.25</v>
+        <v>5266.97</v>
       </c>
       <c r="C89" t="n">
-        <v>6271.87</v>
+        <v>23701.35999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>815.3431</v>
+        <v>2607.149599999999</v>
       </c>
       <c r="E89" t="n">
-        <v>627.187</v>
+        <v>2133.1224</v>
       </c>
       <c r="F89" t="n">
-        <v>564.4683</v>
+        <v>1896.1088</v>
       </c>
       <c r="G89" t="n">
-        <v>564.4683</v>
+        <v>1896.1088</v>
       </c>
       <c r="H89" t="n">
-        <v>564.4683</v>
+        <v>1896.1088</v>
       </c>
       <c r="I89" t="n">
-        <v>501.7496</v>
+        <v>1896.1088</v>
       </c>
       <c r="J89" t="n">
-        <v>439.0309</v>
+        <v>1659.0952</v>
       </c>
       <c r="K89" t="n">
-        <v>250.8748</v>
+        <v>1422.0816</v>
       </c>
       <c r="L89" t="n">
-        <v>250.8748</v>
+        <v>1185.068</v>
       </c>
       <c r="M89" t="n">
-        <v>752.6243999999999</v>
+        <v>2370.136</v>
       </c>
       <c r="N89" t="n">
-        <v>250.8748</v>
+        <v>1185.068</v>
       </c>
       <c r="O89" t="n">
-        <v>188.1561</v>
+        <v>948.0543999999999</v>
       </c>
       <c r="P89" t="n">
-        <v>188.1561</v>
+        <v>711.0407999999999</v>
       </c>
       <c r="Q89" t="n">
-        <v>125.4374</v>
+        <v>711.0407999999999</v>
       </c>
       <c r="R89" t="n">
-        <v>62.7187</v>
+        <v>474.0271999999999</v>
       </c>
       <c r="S89" t="n">
-        <v>125.4374</v>
+        <v>711.0407999999999</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>201</v>
+        <v>7651</v>
       </c>
       <c r="B90" t="n">
-        <v>0.89</v>
+        <v>2463.56</v>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>10016.88</v>
       </c>
       <c r="D90" t="n">
-        <v>0.48</v>
+        <v>982.0470588235291</v>
       </c>
       <c r="E90" t="n">
-        <v>0.48</v>
+        <v>883.8423529411762</v>
       </c>
       <c r="F90" t="n">
-        <v>0.44</v>
+        <v>785.6376470588233</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4</v>
+        <v>785.6376470588233</v>
       </c>
       <c r="H90" t="n">
-        <v>0.32</v>
+        <v>785.6376470588233</v>
       </c>
       <c r="I90" t="n">
-        <v>0.28</v>
+        <v>785.6376470588233</v>
       </c>
       <c r="J90" t="n">
-        <v>0.2</v>
+        <v>687.4329411764704</v>
       </c>
       <c r="K90" t="n">
-        <v>0.2</v>
+        <v>589.2282352941174</v>
       </c>
       <c r="L90" t="n">
-        <v>0.2</v>
+        <v>491.0235294117646</v>
       </c>
       <c r="M90" t="n">
-        <v>0.48</v>
+        <v>982.0470588235291</v>
       </c>
       <c r="N90" t="n">
-        <v>0.16</v>
+        <v>491.0235294117646</v>
       </c>
       <c r="O90" t="n">
-        <v>0.12</v>
+        <v>392.8188235294116</v>
       </c>
       <c r="P90" t="n">
-        <v>0.08</v>
+        <v>392.8188235294116</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.08</v>
+        <v>392.8188235294116</v>
       </c>
       <c r="R90" t="n">
-        <v>0.04</v>
+        <v>294.6141176470587</v>
       </c>
       <c r="S90" t="n">
-        <v>0.04</v>
+        <v>294.6141176470587</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6608</v>
+        <v>7652</v>
       </c>
       <c r="B91" t="n">
-        <v>15.79</v>
+        <v>1508.25</v>
       </c>
       <c r="C91" t="n">
-        <v>71.08</v>
+        <v>6271.87</v>
       </c>
       <c r="D91" t="n">
-        <v>8.5296</v>
+        <v>815.3431</v>
       </c>
       <c r="E91" t="n">
-        <v>8.5296</v>
+        <v>627.187</v>
       </c>
       <c r="F91" t="n">
-        <v>7.8188</v>
+        <v>564.4683</v>
       </c>
       <c r="G91" t="n">
-        <v>7.108000000000001</v>
+        <v>564.4683</v>
       </c>
       <c r="H91" t="n">
-        <v>5.6864</v>
+        <v>564.4683</v>
       </c>
       <c r="I91" t="n">
-        <v>4.9756</v>
+        <v>501.7496</v>
       </c>
       <c r="J91" t="n">
-        <v>3.554</v>
+        <v>439.0309</v>
       </c>
       <c r="K91" t="n">
-        <v>3.554</v>
+        <v>250.8748</v>
       </c>
       <c r="L91" t="n">
-        <v>3.554</v>
+        <v>250.8748</v>
       </c>
       <c r="M91" t="n">
-        <v>8.5296</v>
+        <v>752.6243999999999</v>
       </c>
       <c r="N91" t="n">
-        <v>2.8432</v>
+        <v>250.8748</v>
       </c>
       <c r="O91" t="n">
-        <v>2.1324</v>
+        <v>188.1561</v>
       </c>
       <c r="P91" t="n">
-        <v>1.4216</v>
+        <v>188.1561</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.4216</v>
+        <v>125.4374</v>
       </c>
       <c r="R91" t="n">
-        <v>0.7108</v>
+        <v>62.7187</v>
       </c>
       <c r="S91" t="n">
-        <v>0.7108</v>
+        <v>125.4374</v>
       </c>
     </row>
     <row r="92">

--- a/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2030.xlsx
+++ b/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2030.xlsx
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>1232.051496168234</v>
+        <v>1232.051496168232</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>3800.738328186488</v>
+        <v>3800.738328186489</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>3360.454071004608</v>
+        <v>3360.454071004611</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>15489.8743810636</v>
+        <v>15489.87438106359</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>8785.024859320079</v>
+        <v>8785.024859320072</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>15100.63376906175</v>
+        <v>15100.63376906176</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>9742.014064509254</v>
+        <v>9742.014064509252</v>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>38153.98122632317</v>
+        <v>38153.98122632319</v>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>28205.67768783843</v>
+        <v>28205.6776878384</v>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>1524.431419837526</v>
+        <v>1524.431419837527</v>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>7468.849771014898</v>
+        <v>7468.849771014899</v>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>2598.100779916603</v>
+        <v>2598.100779916604</v>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>2356.389835782567</v>
+        <v>2356.389835782568</v>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>13464.20510356615</v>
+        <v>13464.20510356614</v>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>3175.313315680073</v>
+        <v>3175.313315680071</v>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>7885.201641706568</v>
+        <v>7885.201641706555</v>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>7274.180526998376</v>
+        <v>7274.180526998373</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>36330.01116296247</v>
+        <v>36330.01116296249</v>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>9707.940667031195</v>
+        <v>9707.9406670312</v>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
-        <v>12267.90541141556</v>
+        <v>12267.90541141555</v>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>26348.07338180922</v>
+        <v>26348.07338180923</v>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>6242.115705987568</v>
+        <v>6242.115705987571</v>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
-        <v>5260.916674641872</v>
+        <v>5260.916674641871</v>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
-        <v>4128.338923772963</v>
+        <v>4128.338923772962</v>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="n">
-        <v>652.0502750507543</v>
+        <v>652.0502750507541</v>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
-        <v>3722.840455364624</v>
+        <v>3722.840455364627</v>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="n">
-        <v>2449.742956937685</v>
+        <v>2449.742956937684</v>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="n">
-        <v>4157.52117207614</v>
+        <v>4157.521172076141</v>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
@@ -6836,7 +6836,7 @@
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="n">
-        <v>7041.18689905558</v>
+        <v>7041.186899055579</v>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>3487.894132597135</v>
+        <v>3487.894132597137</v>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
-        <v>2790.810130863575</v>
+        <v>2790.810130863574</v>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="n">
-        <v>4323.27522414927</v>
+        <v>4323.275224149271</v>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
@@ -7036,7 +7036,7 @@
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="n">
-        <v>4834.718675078731</v>
+        <v>4834.71867507873</v>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>5548.019081201677</v>
+        <v>5548.019081201678</v>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>8219.805519892965</v>
+        <v>8219.805519892961</v>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
-        <v>5756.239159726669</v>
+        <v>5756.239159726667</v>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
-        <v>7199.647841418209</v>
+        <v>7199.647841418208</v>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="n">
-        <v>47938.81446648666</v>
+        <v>47938.81446648668</v>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
@@ -7211,7 +7211,7 @@
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="n">
-        <v>41553.03556026502</v>
+        <v>41553.035560265</v>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="n">
-        <v>46032.23788426784</v>
+        <v>46032.23788426782</v>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
@@ -7286,7 +7286,7 @@
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
-        <v>59839.6098866891</v>
+        <v>59839.60988668911</v>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="n">
-        <v>74795.9999239129</v>
+        <v>74795.99992391285</v>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="n">
-        <v>1685.955238628934</v>
+        <v>1685.955238628932</v>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
-        <v>13315.61480911469</v>
+        <v>13315.61480911468</v>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="n">
-        <v>7875.518813505023</v>
+        <v>7875.518813505024</v>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="n">
-        <v>7680.015947994851</v>
+        <v>7680.015947994853</v>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
-        <v>2886.996142498469</v>
+        <v>2886.996142498468</v>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="n">
-        <v>3819.590836658151</v>
+        <v>3819.590836658152</v>
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="n">
-        <v>9721.917660304134</v>
+        <v>9721.917660304132</v>
       </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="n">
-        <v>12559.22100002532</v>
+        <v>12559.22100002531</v>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="n">
-        <v>24575.07053038957</v>
+        <v>24575.07053038956</v>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="n">
-        <v>15138.50520859535</v>
+        <v>15138.50520859537</v>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="n">
-        <v>62623.56598265291</v>
+        <v>62623.56598265296</v>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="n">
-        <v>11691.62122437935</v>
+        <v>11691.62122437934</v>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
@@ -8136,7 +8136,7 @@
       </c>
       <c r="B204" t="inlineStr"/>
       <c r="C204" t="n">
-        <v>9403.773333123325</v>
+        <v>9403.773333123327</v>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr"/>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="n">
-        <v>21833.54945550715</v>
+        <v>21833.54945550716</v>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr"/>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="n">
-        <v>27095.13367797237</v>
+        <v>27095.13367797236</v>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr"/>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="n">
-        <v>37917.67494943826</v>
+        <v>37917.67494943827</v>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
@@ -8286,7 +8286,7 @@
       </c>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="n">
-        <v>7977.828012002438</v>
+        <v>7977.82801200244</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="n">
-        <v>9584.977573008026</v>
+        <v>9584.977573008027</v>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="n">
-        <v>6368.183368581323</v>
+        <v>6368.183368581321</v>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr"/>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="n">
-        <v>3335.046834709662</v>
+        <v>3335.046834709663</v>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr"/>
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="n">
-        <v>3763.588281360668</v>
+        <v>3763.588281360669</v>
       </c>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr"/>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="n">
-        <v>4573.052179001804</v>
+        <v>4573.052179001803</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
-        <v>9908.902741580545</v>
+        <v>9908.902741580541</v>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
-        <v>11360.0882186504</v>
+        <v>11360.08821865041</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="n">
-        <v>8405.664389853391</v>
+        <v>8405.664389853389</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
@@ -8736,7 +8736,7 @@
       </c>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="n">
-        <v>76402.35084621215</v>
+        <v>76402.35084621214</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="n">
-        <v>12363.16671009871</v>
+        <v>12363.1667100987</v>
       </c>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr"/>
@@ -9011,7 +9011,7 @@
       </c>
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="n">
-        <v>6815.652232978498</v>
+        <v>6815.652232978496</v>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr"/>
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="n">
-        <v>43238.44788926775</v>
+        <v>43238.44788926774</v>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr"/>
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="n">
-        <v>29645.50953607107</v>
+        <v>29645.50953607105</v>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr"/>
@@ -9136,7 +9136,7 @@
       </c>
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="n">
-        <v>41000.81603700513</v>
+        <v>41000.81603700518</v>
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr"/>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="B249" t="inlineStr"/>
       <c r="C249" t="n">
-        <v>30137.54893176309</v>
+        <v>30137.54893176307</v>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr"/>
